--- a/excel/8.xlsx
+++ b/excel/8.xlsx
@@ -956,7 +956,11 @@
           <t>弹性力学马志涛 (1-12周) 工程力学2019-1-2</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr"/>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>电子商务杨磊 (8-15周) 临班677</t>
+        </is>
+      </c>
       <c r="V4" t="inlineStr">
         <is>
           <t>爆破安全辛林 (6-9周) 安全工程2019-1-4</t>
@@ -1089,7 +1093,7 @@
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>运输项目管理与评估孙彦明,张传明 (2-5,7-11周) 交通运输2019-1-2</t>
+          <t>运输项目管理与评估孙彦明 (2-5,7-11周) 交通运输2019-1-2</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1172,7 +1176,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>材料力学性能李敏 (2-10周) 金属材料工程2019-3</t>
+          <t>材料力学性能李敏 (2-3,5-10周) 金属材料工程2019-3</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1194,7 +1198,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>材料力学性能李敏 (2-10周) 金属材料工程2019-1-2</t>
+          <t>材料力学性能李敏 (2-3,5-10周) 金属材料工程2019-1-2</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1283,12 +1287,16 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>电动汽车设计李玉善,刘宗锋 (1-8周) 车辆工程2018-1-4</t>
+          <t>电动汽车设计李玉善 (1-2,4-8周) 车辆工程2018-1-4</t>
         </is>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>普通化学（B）陈伟 (4-11周) 地质工程2021-1-2</t>
+        </is>
+      </c>
       <c r="S7" t="inlineStr">
         <is>
           <t>供应链管理李美燕 (4-15周) 工业工程2018-1-3</t>
@@ -1307,7 +1315,7 @@
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr">
         <is>
-          <t>电动汽车设计李玉善,刘宗锋 (1-8周) 车辆工程2018-1-4</t>
+          <t>电动汽车设计李玉善 (1-8周) 车辆工程2018-1-4</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -1373,7 +1381,7 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>运输经济学孙彦明,王超 (2-5,7-11周) 交通运输2019-1-2</t>
+          <t>运输经济学孙彦明 (2-5,7-11周) 交通运输2019-1-2</t>
         </is>
       </c>
       <c r="M8" t="inlineStr"/>
@@ -1390,7 +1398,7 @@
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>液压、液力与气压传动刘俊龙,刘宗锋 (1-9周) 车辆工程2019-1-3</t>
+          <t>液压、液力与气压传动刘俊龙 (1-9周) 车辆工程2019-1-3</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1411,14 +1419,14 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
         <is>
-          <t>运输经济学孙彦明,王超 (2-5,7-11周) 交通运输2019-1-2</t>
+          <t>运输经济学孙彦明 (2-5,7-11周) 交通运输2019-1-2</t>
         </is>
       </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>液压、液力与气压传动刘俊龙,刘宗锋 (1-9周) 车辆工程2019-1-3</t>
+          <t>液压、液力与气压传动刘俊龙 (1-9周) 车辆工程2019-1-3</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr"/>
@@ -1574,7 +1582,11 @@
           <t>工程概论王海鑫 (1-8周) 遥感科学与技术2020-1-3</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>工程测试技术基础隋秀华 (8周) 机械设计制造及其自动化2019-1-3</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
@@ -1627,7 +1639,7 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础徐玉明 (4-15周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
+          <t>思想道德与法治徐玉明 (4-15周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
         </is>
       </c>
       <c r="U10" t="inlineStr"/>
@@ -1744,7 +1756,7 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础郗凤芹 (4-15周) 国际经济与贸易2021-1-2班,会计学2021-1-2</t>
+          <t>思想道德与法治郗凤芹 (4-15周) 国际经济与贸易2021-1-2班,会计学2021-1-2</t>
         </is>
       </c>
       <c r="U11" t="inlineStr"/>
@@ -1917,7 +1929,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>车辆动力学基础杜现斌,王强 (2-9周) 车辆工程2018-1-4</t>
+          <t>车辆动力学基础杜现斌 (2-9周) 车辆工程2018-1-4</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1947,7 +1959,7 @@
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>车辆动力学基础杜现斌,王强 (2-9周) 车辆工程2018-1-4</t>
+          <t>车辆动力学基础杜现斌 (2-9周) 车辆工程2018-1-4</t>
         </is>
       </c>
       <c r="R13" t="inlineStr"/>
@@ -1965,7 +1977,7 @@
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr">
         <is>
-          <t>应用统计学(A)马媛 (1-8周) 工商管理2019-1-2</t>
+          <t>应用统计学(A)马媛 (1,3-8周) 工商管理2019-1-2</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
@@ -2066,7 +2078,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础徐玉明 (4-15周) 地质工程2021-1-3</t>
+          <t>思想道德与法治徐玉明 (4-15周) 地质工程2021-1-3</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2112,7 +2124,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础徐玉明 (4-15周) 地质工程2021-1-3</t>
+          <t>思想道德与法治徐玉明 (4-15周) 地质工程2021-1-3</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2165,7 +2177,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>采矿科学与技术（双语）蒋力帅 (1-9周) 采矿工程2018-1-2</t>
+          <t>采矿科学与技术（双语）蒋力帅 (1-2,4-9周) 采矿工程2018-1-2</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -2308,7 +2320,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>工程测试技术基础隋秀华 (2-10周) 机械设计制造及其自动化2019-1-3</t>
+          <t>工程测试技术基础隋秀华 (2,4-10周) 机械设计制造及其自动化2019-1-3</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
@@ -2381,7 +2393,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>工程测试技术基础隋秀华 (2-10周) 机械设计制造及其自动化2019-1-3</t>
+          <t>工程测试技术基础隋秀华 (2,4-10周) 机械设计制造及其自动化2019-1-3</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
@@ -2462,11 +2474,7 @@
           <t>专业导论*韩永芹 (4-11周) 高分子材料与工程2021-1-3</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>地球化学陈桥 (1-8周) 地质工程2019-1-3</t>
-        </is>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
@@ -2880,7 +2888,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>突发事件案例分析杨文宇 (5-9周) 安全工程（应急管理方向）2019</t>
+          <t>突发事件案例分析董晓素 (5-9周) 安全工程（应急管理方向）2019</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -3223,7 +3231,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
+          <t>马克思主义基本原理冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -3253,7 +3261,7 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础高华 (4-15周) 机械电子工程2021-4-6</t>
+          <t>思想道德与法治高华 (4-15周) 机械电子工程2021-4-6</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
@@ -3274,12 +3282,12 @@
       <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>数据库技术基础张永华 (1-8周) 临班77</t>
+          <t>数据库技术基础张永华 (1-2,4-8周) 临班77</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>数据库技术基础张永华 (1-8周) 临班77</t>
+          <t>数据库技术基础张永华 (1-2,4-8周) 临班77</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr"/>
@@ -3754,11 +3762,7 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
           <t>几何量公差与检测戴向云 (2-9周) 机械设计制造及其自动化2019-1-3</t>
@@ -3942,7 +3946,7 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>突发事件案例分析刘义鑫 (6-9周) 安全工程（应急管理方向）2018</t>
+          <t>突发事件案例分析董晓素 (6-9周) 安全工程（应急管理方向）2018</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -4077,7 +4081,7 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
+          <t>马克思主义基本原理冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
@@ -4166,7 +4170,7 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>运筹学（B）庄晓雯 (1-13周) 工商管理2019-2</t>
+          <t>运筹学（B）庄晓雯 (2-13周) 工商管理2019-2</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
@@ -4233,7 +4237,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论贾强,张蕾 (1-12周) 机械设计制造及其自动化2020-1-4</t>
+          <t>马克思主义基本原理贾强,张蕾 (1-12周) 机械设计制造及其自动化2020-1-4</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -4313,7 +4317,7 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -4343,7 +4347,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+          <t>思想道德与法治高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -4365,7 +4369,7 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
+          <t>马克思主义基本原理尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
         </is>
       </c>
       <c r="U36" t="inlineStr"/>
@@ -4447,11 +4451,7 @@
           <t>大学英语（A)(2-1)刘海英 (4-19周) 机械电子工程2021-4</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>地质学基础宋志刚,赵秀丽 (4-15周) 勘查技术与工程2021-2</t>
-        </is>
-      </c>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论吴华眉 (1-12周) 测绘工程2020-5班,遥感科学与技术2020-1-3</t>
+          <t>马克思主义基本原理吴华眉 (1-12周) 测绘工程2020-5班,遥感科学与技术2020-1-3</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -4550,7 +4550,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论刘丽威 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
+          <t>马克思主义基本原理刘丽威 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
         </is>
       </c>
       <c r="P38" t="inlineStr"/>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+          <t>思想道德与法治高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr"/>
@@ -6172,7 +6172,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>地质学基础宋志刚,赵秀丽 (4-15周) 勘查技术与工程2021-2</t>
+          <t>地质学基础宋志刚,赵延洋 (4-15周) 勘查技术与工程2021-2</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -6180,11 +6180,7 @@
           <t>电工电子技术（B）王亚群 (1-12周) 安全工程2020-4-5</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
@@ -6849,7 +6845,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
+          <t>马克思主义基本原理尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -6865,7 +6861,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论魏丽萍 (1-12周) 物流管理2020-1-2班,国际经济与贸易2020-1-2</t>
+          <t>马克思主义基本原理魏丽萍 (1-12周) 物流管理2020-1-2班,国际经济与贸易2020-1-2</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -6883,7 +6879,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础杜萍萍 (4-15周) 测绘工程2021-1-4</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-1-4</t>
         </is>
       </c>
       <c r="P63" t="inlineStr"/>
@@ -6895,12 +6891,12 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论王建志 (1-12周) 金融学2020-1-2班,会计学2020-1-2</t>
+          <t>马克思主义基本原理王建志 (1-12周) 金融学2020-1-2班,会计学2020-1-2</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
@@ -6921,7 +6917,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础杜萍萍 (4-15周) 测绘工程2021-1-4</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-1-4</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr"/>
@@ -7048,7 +7044,11 @@
           <t>地统计学概论孔冬贤 (4-11周) 遥感科学与技术2019-1-3</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>采矿学黄万朋 (1-8周) 采矿工程（智能开采方向）2019-2</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>遥感数字图像处理蔡玉林 (3-13周) 地理信息科学2019-1-2</t>
@@ -7143,7 +7143,7 @@
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>专业英语赵俐红 (4-11周) 勘查技术与工程2018-1-2</t>
+          <t>专业英语赵俐红 (5-11周) 勘查技术与工程2018-1-2</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -9022,7 +9022,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）徐岩 (1-4,6-13周) 采矿工程（宋振骐班）</t>
+          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
@@ -9044,14 +9044,10 @@
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）徐岩 (1-4,6-13周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)张兴梅 (4-19周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr">
@@ -9073,11 +9069,7 @@
       <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr"/>
       <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)张兴梅 (4-19周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+      <c r="X90" t="inlineStr"/>
       <c r="Y90" t="inlineStr">
         <is>
           <t>机械设计基础（A）陈修龙 (8-19周) 采矿工程（宋振骐班）</t>
@@ -9115,7 +9107,11 @@
           <t>采矿学李占海 (1-11周) 采矿工程2019-1-2</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
+        </is>
+      </c>
       <c r="F91" t="inlineStr">
         <is>
           <t>工程地质学基础郭建斌 (8-16周) 地质工程2019-3</t>
@@ -9139,13 +9135,21 @@
           <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
         </is>
       </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
+        </is>
+      </c>
       <c r="N91" t="inlineStr">
         <is>
           <t>采矿学李占海 (1-11周) 采矿工程2019-1-2</t>
         </is>
       </c>
-      <c r="O91" t="inlineStr"/>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>地质学基础宋志刚,赵延洋 (4-15周) 勘查技术与工程2021-2</t>
+        </is>
+      </c>
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr">
         <is>

--- a/excel/8.xlsx
+++ b/excel/8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK91"/>
+  <dimension ref="A1:AK90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -901,7 +901,11 @@
           <t>可靠性工程于师建 (1-8周) 安全工程2019-1-4</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>微观经济学(A)赵金凯 (8周) 国际经济与贸易2021-1</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
@@ -922,7 +926,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>绿色开采技术郭忠平 (6-10周) 采矿工程2018-1-3</t>
+          <t>绿色开采技术郭忠平 (7-10周) 采矿工程2018-1-3</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -975,7 +979,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>结构设计原理孙宗军 (7-8周) 交通工程2019-1-2</t>
+          <t>结构设计原理孙宗军 (8周) 交通工程2019-1-2</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr"/>
@@ -1014,7 +1018,11 @@
           <t>应用统计学（C）赵峰 (1-8周) 电子商务2019-1-2</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>水文地质学尹会永 (4-9周) 资源勘查工程2019-1-3</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
@@ -1087,7 +1095,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>微观经济学(A)赵金凯 (8-19周) 国际经济与贸易2021-1</t>
+          <t>微观经济学(A)赵金凯 (8-18周) 国际经济与贸易2021-1</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr"/>
@@ -1098,12 +1106,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>微观经济学（A）任一鑫 (8-19周) 会计辅修 2020版</t>
+          <t>微观经济学（A）任一鑫 (8-18周) 会计辅修 2020版</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>微观经济学（A）任一鑫 (8-19周) 会计辅修 2020版</t>
+          <t>微观经济学（A）任一鑫 (8-18周) 会计辅修 2020版</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1161,11 +1169,7 @@
           <t>粉末冶金学谢鲲 (1-8周) 金属材料工程2018-1-3</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>材料力学性能李敏 (2-10周) 金属材料工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
           <t>节能原理与技术周振峰 (1-9周) 能源与动力工程2019-1-3</t>
@@ -1190,7 +1194,11 @@
         </is>
       </c>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>粉末冶金学谢鲲 (8周) 金属材料工程2018-1-3</t>
+        </is>
+      </c>
       <c r="R6" t="inlineStr">
         <is>
           <t>结构化学孙海清 (1-9周) 材料化学2019-1-2</t>
@@ -1198,7 +1206,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>材料力学性能李敏 (2-3,5-10周) 金属材料工程2019-1-2</t>
+          <t>材料力学性能李敏 (2-3,5-9周) 金属材料工程2019-1-2</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1207,21 +1215,13 @@
         </is>
       </c>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>粉末冶金学谢鲲 (1-8周) 金属材料工程2018-1-3</t>
-        </is>
-      </c>
+      <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr">
         <is>
           <t>高分子化学白瑞钦 (1-8周) 高分子材料与工程2019-1-2</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>材料力学性能李敏 (2-10周) 金属材料工程2019-3</t>
-        </is>
-      </c>
+      <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
@@ -1328,7 +1328,11 @@
           <t>专业英语杨坤 (1-8周) 工程力学2018-1-3</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>计算机地质绘图王其芳 (4-9周) 资源勘查工程2019-1-3</t>
+        </is>
+      </c>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
@@ -1369,7 +1373,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>国际贸易侯贵生 (8-19周) 国际经济与贸易2020-1-2</t>
+          <t>国际贸易侯贵生 (8-18周) 国际经济与贸易2020-1-2</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1390,11 +1394,7 @@
           <t>运筹学（C）饶卫振 (1-9周) 投资学2019-1-2</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>工程测量景冬 (1-9周) 采矿工程（智能开采方向）2019-2</t>
-        </is>
-      </c>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1433,12 +1433,12 @@
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>中级财务会计（II）郝敏 (1-12周) 会计学(辅修) 2019版</t>
+          <t>中级财务会计（II）郝敏 (1-2,4-12周) 会计学(辅修) 2019版</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>中级财务会计（II）郝敏 (1-12周) 会计学(辅修) 2019版</t>
+          <t>中级财务会计（II）郝敏 (1-2,4-12周) 会计学(辅修) 2019版</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -1454,12 +1454,12 @@
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>应用统计学陶敏 (4-14周) 国际经济与贸易(辅修)2020-1</t>
+          <t>应用统计学陶敏 (5-14周) 国际经济与贸易(辅修)2020-1</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>应用统计学陶敏 (4-14周) 国际经济与贸易(辅修)2020-1</t>
+          <t>应用统计学陶敏 (5-14周) 国际经济与贸易(辅修)2020-1</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1690,17 +1690,9 @@
           <t>地震勘探原理林年添 (2-10周) 勘查技术与工程2019-1-2</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>岩土工程勘察尹会永 (5-14周) 地质工程2018-2</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>水文地质学尹会永 (4-9周) 资源勘查工程2019-1-3</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
           <t>计算机地质绘图王其芳 (4-9周) 资源勘查工程2019-1-3</t>
@@ -1728,11 +1720,7 @@
           <t>地震勘探原理林年添 (2-10周) 勘查技术与工程2019-1-2</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>岩土工程勘察尹会永 (5-14周) 地质工程2018-2</t>
-        </is>
-      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1934,7 +1922,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>证券投资学周衍平 (1-9周) 投资学2019-1-2</t>
+          <t>证券投资学周衍平 (1-4,6-9周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1962,7 +1950,11 @@
           <t>车辆动力学基础杜现斌 (2-9周) 车辆工程2018-1-4</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>沉积环境与沉积相杨仁超 (8-9周) 资源勘查工程（海洋矿产资源方向）2019</t>
+        </is>
+      </c>
       <c r="S13" t="inlineStr">
         <is>
           <t>会计学专业导论*张咏梅 (4-11周) 会计学2021-1-2</t>
@@ -1988,16 +1980,8 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>微观经济学（A）焦习燕 (8-19周) 国际经济与贸易(辅修)2020-1</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>微观经济学（A）焦习燕 (8-19周) 国际经济与贸易(辅修)2020-1</t>
-        </is>
-      </c>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr">
         <is>
           <t>国际商务谈判姜秀娟 (4-11周) 国际经济与贸易(辅修)2020</t>
@@ -2044,7 +2028,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)杨明 (4-19周) 地质工程2021-1</t>
+          <t>大学英语（A)(2-1)杨明 (4-18周) 地质工程2021-1</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2060,7 +2044,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)王惠 (4-19周) 采矿工程2021-1</t>
+          <t>大学英语（A)(2-1)王惠 (4-18周) 采矿工程2021-1</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -2068,7 +2052,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)杨明 (4-19周) 地质工程2021-1</t>
+          <t>大学英语（A)(2-1)杨明 (4-18周) 地质工程2021-1</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -2254,7 +2238,11 @@
           <t>J14-211室</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-1)孔昭莉 (4-18周) 地质工程2021-2</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>机械设计（A）叶铁丽 (8-16周) 机械设计制造及其自动化2019-4-5</t>
@@ -2375,7 +2363,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>构造地质学张丽萍 (1-8周) 勘查技术与工程2019-1-2</t>
+          <t>构造地质学张丽萍 (1-5,7-8周) 勘查技术与工程2019-1-2</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -2413,7 +2401,11 @@
           <t>机械设计（A）叶铁丽 (7-15周) 机械电子工程2019-1-3</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr"/>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>工程测量翟敏 (8周) 采矿工程2019-4</t>
+        </is>
+      </c>
       <c r="V17" t="inlineStr">
         <is>
           <t>有限元方法朱绪力 (1-3,8-16周) 机械电子工程(留学生)2018</t>
@@ -2560,7 +2552,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)陈昕 (4-19周) 资源勘查工程2021-1</t>
+          <t>大学英语（A)(2-1)陈昕 (4-18周) 资源勘查工程2021-1</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2706,7 +2698,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>计算机程序设计（C语言）张涛 (7-14周) 资源勘查工程2020-1-3</t>
+          <t>计算机程序设计（C语言）张涛 (7-10,12-14周) 资源勘查工程2020-1-3</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -2779,7 +2771,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>概率论与数理统计黄珍 (1-12周) 测绘工程2020-4-5</t>
+          <t>概率论与数理统计黄珍 (1-3,5-12周) 测绘工程2020-4-5</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -2791,7 +2783,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)谭剑鸣 (4-19周) 机械电子工程2021-6</t>
+          <t>大学英语（A)(2-1)谭剑鸣 (4-18周) 机械电子工程2021-6</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2801,7 +2793,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)郭放 (4-19周) 地理信息科学2021-3</t>
+          <t>大学英语（A)(2-1)郭放 (4-18周) 地理信息科学2021-3</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
@@ -2832,11 +2824,7 @@
           <t>管理会计刘立华 (1-12周) 会计学2019-1-2</t>
         </is>
       </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>智能设备监控系统王亮 (1-3,8-12周) 机械电子工程(留学生)2018</t>
-        </is>
-      </c>
+      <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr">
         <is>
           <t>岩石学吴靖,杨仁超 (1-8周) 地质工程2020-3</t>
@@ -3009,11 +2997,7 @@
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>机械制造技术基础杨俊茹 (8-18周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
           <t>机械设计A李桂莉 (7-15周) 过程装备与控制工程2019-1-2</t>
@@ -3034,12 +3018,12 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>管理学（B） 田莹 (1-3,7-12周) 机械电子工程2018-1-3</t>
+          <t>管理学（B） 田莹 (1-3,8-12周) 机械电子工程2018-1-3</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>管理学（B） 田莹 (1-3,7-12周) 机械电子工程2018-4-5</t>
+          <t>管理学（B） 田莹 (1-3,8-12周) 机械电子工程2018-4-5</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
@@ -3047,7 +3031,7 @@
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr">
         <is>
-          <t>管理学（B） 田莹 (1-3,7-12周) 机械电子工程2018-4-5</t>
+          <t>管理学（B） 田莹 (1-3,8-12周) 机械电子工程2018-4-5</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
@@ -3064,7 +3048,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>管理学（B） 田莹 (1-3,7-12周) 机械电子工程2018-1-3</t>
+          <t>管理学（B） 田莹 (1-3,8-12周) 机械电子工程2018-1-3</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr"/>
@@ -3178,22 +3162,22 @@
       <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>国际商法（A）刘本玲 (8-19周) 国际经济与贸易(辅修) 2019版</t>
+          <t>国际商法（A）刘本玲 (8-18周) 国际经济与贸易(辅修) 2019版</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>国际商法（A）刘本玲 (8-19周) 国际经济与贸易(辅修) 2019版</t>
+          <t>国际商法（A）刘本玲 (8-18周) 国际经济与贸易(辅修) 2019版</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>国际贸易马风涛 (8-19周) 国际经济与贸易(辅修)2020</t>
+          <t>国际贸易马风涛 (8-18周) 国际经济与贸易(辅修)2020</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>国际贸易马风涛 (8-19周) 国际经济与贸易(辅修)2020</t>
+          <t>国际贸易马风涛 (8-18周) 国际经济与贸易(辅修)2020</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr"/>
@@ -3218,7 +3202,11 @@
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>大学生心理健康教育薄艳艳,牟杰 (4-11周) 地质工程2021-1-3班,勘查技术与工程2021-2</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr">
         <is>
           <t>工程地质专业英语张鹏飞 (1-8周) 地质工程2019-1</t>
@@ -3265,7 +3253,11 @@
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>大学生心理健康教育薄艳艳,牟杰 (4-11周) 地质工程2021-1-3班,勘查技术与工程2021-2</t>
+        </is>
+      </c>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr">
         <is>
@@ -3274,7 +3266,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)翟清永 (4-19周) 遥感科学与技术2021-1</t>
+          <t>大学英语（A)(2-1)翟清永 (4-18周) 遥感科学与技术2021-1</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr"/>
@@ -3282,12 +3274,12 @@
       <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>数据库技术基础张永华 (1-2,4-8周) 临班77</t>
+          <t>数据库技术基础张永华 (1-2,4-5,7-8周) 临班77</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>数据库技术基础张永华 (1-2,4-8周) 临班77</t>
+          <t>数据库技术基础张永华 (1-2,4-5,7-8周) 临班77</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr"/>
@@ -3310,7 +3302,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>无机材料生产设备王相南 (5-8周) 无机非金属材料工程2018</t>
+          <t>无机材料生产设备王相南 (5,7-8周) 无机非金属材料工程2018</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -3371,7 +3363,7 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>无机材料生产设备王相南 (5-8周) 无机非金属材料工程2018</t>
+          <t>无机材料生产设备王相南 (6-8周) 无机非金属材料工程2018</t>
         </is>
       </c>
       <c r="U26" t="inlineStr"/>
@@ -3533,7 +3525,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>物理化学杨静 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学杨静 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -3571,7 +3563,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>物理化学杨静 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学杨静 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -3632,11 +3624,7 @@
           <t>线性代数李刚 (1-11周) 资源勘查工程2020-1-3</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>制图基础（A）戚美 (4-15周) 能源与动力工程2021-1-3</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -3647,7 +3635,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)张兴梅 (4-19周) 勘查技术与工程2021-1</t>
+          <t>大学英语（A)(2-1)张兴梅 (4-18周) 勘查技术与工程2021-1</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -3679,11 +3667,7 @@
           <t>高等数学（A）（2-1）付余 (4-19周) 机械电子工程2021-4-6</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>制图基础（A）戚美 (4-15周) 能源与动力工程2021-1-3</t>
-        </is>
-      </c>
+      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr">
         <is>
           <t>地下水动力学王敏 (2-12周) 水文与水资源工程2019-1-2</t>
@@ -3702,14 +3686,10 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李美 (4-19周) 遥感科学与技术2021-2</t>
-        </is>
-      </c>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>工程地质学基础张伟杰 (8-16周) 地质工程2019-1</t>
-        </is>
-      </c>
+          <t>大学英语（A)(2-1)李美 (4-18周) 遥感科学与技术2021-2</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr"/>
@@ -3792,11 +3772,7 @@
       </c>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>工程测量景冬 (1-9周) 采矿工程（智能开采方向）2019-2</t>
-        </is>
-      </c>
+      <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr">
         <is>
           <t>采矿学黄万朋 (1-8周) 采矿工程（智能开采方向）2019-2</t>
@@ -3836,12 +3812,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>外贸英文函电于晓燕 (1-9周) 国际经济与贸易2019-1-2</t>
+          <t>外贸英文函电于晓燕 (1-5,7-9周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>商务英语口语于晓燕 (1-9周) 国际经济与贸易2019-1-2</t>
+          <t>商务英语口语于晓燕 (1-5,7-9周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -3878,7 +3854,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>国际金融孙江永 (1-9周) 国际经济与贸易2019-1-2</t>
+          <t>国际服务贸易李丽丽 (5-9周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -3891,7 +3867,11 @@
           <t>商务英语口语于晓燕 (1-9周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
-      <c r="U31" t="inlineStr"/>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>外贸英文函电于晓燕 (8周) 国际经济与贸易2019-1-2</t>
+        </is>
+      </c>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr">
         <is>
@@ -3905,7 +3885,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>国际服务贸易李丽丽 (1-9周) 国际经济与贸易2019-1-2</t>
+          <t>国际金融孙江永 (5-9周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr"/>
@@ -3917,7 +3897,7 @@
       <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>会计信息系统刘超 (6-19周) 会计学(辅修) 2019版</t>
+          <t>会计信息系统刘超 (6-18周) 会计学(辅修) 2019版</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr"/>
@@ -3940,8 +3920,16 @@
           <t>热力发电厂李龙之 (1-3,7-12周) 能源与动力工程2018-1-3</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>工程测量景冬 (8周) 采矿工程（智能开采方向）2019-2</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>工程测量景冬 (8周) 采矿工程（智能开采方向）2019-2</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
@@ -4118,7 +4106,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>金融学(A)邢苗 (8-19周) 金融学2020-1-2</t>
+          <t>金融学(A)邢苗 (8-17周) 金融学2020-1-2</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -4148,7 +4136,7 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>金融学(A)邢苗 (8-19周) 金融学2020-1-2</t>
+          <t>金融学(A)邢苗 (8-17周) 金融学2020-1-2</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -4175,7 +4163,7 @@
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>普通化学王勇梅 (8-19周) 安全工程2020-3-4</t>
+          <t>普通化学王勇梅 (8-18周) 安全工程2020-3-4</t>
         </is>
       </c>
       <c r="U34" t="inlineStr"/>
@@ -4232,7 +4220,7 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>沉积岩岩石学韩作振 (6-13周) 资源勘查工程2020-1</t>
+          <t>沉积岩岩石学韩作振 (6-11,13周) 资源勘查工程2020-1</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -4259,15 +4247,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>构造地质学金爱文 (1-10周) 资源勘查工程（海洋矿产资源方向）2019</t>
+          <t>构造地质学金爱文 (1-8,10周) 资源勘查工程（海洋矿产资源方向）2019</t>
         </is>
       </c>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>岩石学樊爱萍,杨仁超 (1-8周) 地质工程2020-2</t>
-        </is>
-      </c>
+      <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr">
@@ -4289,11 +4273,7 @@
       </c>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr">
-        <is>
-          <t>沉积环境与沉积相杨仁超 (4-9周) 资源勘查工程（海洋矿产资源方向）2019</t>
-        </is>
-      </c>
+      <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr"/>
@@ -4356,7 +4336,11 @@
         </is>
       </c>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>高等数学（A）（2-1）李 刚(sx) (8周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
+        </is>
+      </c>
       <c r="R36" t="inlineStr">
         <is>
           <t>线性代数张伟伟 (1-11周) 金融学2020-1-2班,会计学2020-1-2</t>
@@ -4364,7 +4348,7 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
@@ -4380,19 +4364,15 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
-        </is>
-      </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要叶小青 (4-15周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
-        </is>
-      </c>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="inlineStr"/>
@@ -4418,7 +4398,7 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李燕妮 (4-19周) 机械电子工程2021-2</t>
+          <t>大学英语（A)(2-1)李燕妮 (4-10,12-18周) 机械电子工程2021-2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -4433,7 +4413,11 @@
           <t>工程概论张传明 (1-8周) 勘查技术与工程2020-1-2</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>毛泽东思想和中国特色社会主义理论体系概论李为君,王忠春 (8双周) 计算机科学与技术（图灵班）,数学与应用数学（吴方班）</t>
+        </is>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
@@ -4443,19 +4427,19 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)徐科吉 (4-19周) 高分子材料与工程2021-3</t>
+          <t>大学英语（A)(2-1)徐科吉 (4-10,12-18周) 高分子材料与工程2021-3</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)刘海英 (4-19周) 机械电子工程2021-4</t>
+          <t>大学英语（A)(2-1)刘海英 (4-18周) 机械电子工程2021-4</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>数学物理方程王德营 (8-19周) 勘查技术与工程2020-1-2</t>
+          <t>数学物理方程王德营 (8-12,14-19周) 勘查技术与工程2020-1-2</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -4478,7 +4462,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)刘海英 (4-19周) 机械电子工程2021-4</t>
+          <t>大学英语（A)(2-1)刘海英 (4-18周) 机械电子工程2021-4</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4524,7 +4508,11 @@
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>高等数学（A）（2-1）李 刚(sx) (8周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr">
         <is>
           <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
@@ -4550,14 +4538,14 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>马克思主义基本原理刘丽威 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
+          <t>马克思主义基本原理刘丽威 (1-4,6-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
         </is>
       </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -4667,7 +4655,7 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>测井地质学杨思通,张涛 (4-12周) 资源勘查工程2018-1-3</t>
+          <t>测井地质学杨思通,张涛 (4-10,12周) 资源勘查工程2018-1-3</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
@@ -4737,7 +4725,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>金属塑性成形原理刘杰 (5-12周) 材料成型及控制工程2019-1-2</t>
+          <t>金属塑性成形原理刘杰 (5-8,10-12周) 材料成型及控制工程2019-1-2</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -4763,7 +4751,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>金属塑性成形原理刘杰 (5-12周) 材料成型及控制工程2019-1-2</t>
+          <t>金属塑性成形原理刘杰 (5-8,10-12周) 材料成型及控制工程2019-1-2</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -4830,7 +4818,7 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>物理化学孙记夫 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学孙记夫 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -4875,11 +4863,7 @@
       </c>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>机械原理（A）魏军英 (5-15周) 材料成型及控制工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr">
         <is>
@@ -4938,7 +4922,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>工程测量翟敏 (1-9周) 采矿工程2019-4</t>
+          <t>工程测量翟敏 (1-6,8-9周) 采矿工程2019-4</t>
         </is>
       </c>
       <c r="P42" t="inlineStr"/>
@@ -5055,7 +5039,7 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>采矿科学与技术（双语）蒋力帅 (1-9周) 采矿工程2018-1-2</t>
+          <t>采矿科学与技术（双语）蒋力帅 (1-3,5-9周) 采矿工程2018-1-2</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
@@ -5168,10 +5152,14 @@
           <t>工程热力学与传热学董晓素 (1-12周) 安全工程2020-5</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>岩土工程勘察尹会永 (5-14周) 地质工程2018-2</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>环境工程微生物（双语）高宇 (1-9周) 环境工程2019-3</t>
+          <t>环境工程微生物（双语）高宇 (1-8周) 环境工程2019-3</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -5194,7 +5182,7 @@
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>普通化学王勇梅 (8-19周) 安全工程2020-3-4</t>
+          <t>普通化学王勇梅 (8-18周) 安全工程2020-3-4</t>
         </is>
       </c>
       <c r="M45" t="inlineStr"/>
@@ -5326,7 +5314,7 @@
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr">
         <is>
-          <t>物理化学孙记夫 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学孙记夫 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
@@ -5471,11 +5459,7 @@
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>几何量公差孙静 (1-9周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
           <t>过程装备密封技术李晓宇 (3-10周) 过程装备与控制工程2018-1-3</t>
@@ -5501,11 +5485,7 @@
       </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>几何量公差孙静 (1-9周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr">
         <is>
           <t>装备的失效分析王凤芹 (3-10周) 过程装备与控制工程2018-1-3</t>
@@ -5653,11 +5633,7 @@
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>智能设备监控系统王亮 (1-3,8-12周) 机械电子工程(留学生)2018</t>
-        </is>
-      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -5741,7 +5717,7 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>微观经济学(A)赵金凯 (8-19周) 国际经济与贸易2021-1</t>
+          <t>微观经济学(A)赵金凯 (8-18周) 国际经济与贸易2021-1</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -5800,7 +5776,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>铸造工艺学王淑峰 (1-8周) 金属材料工程2018-1-3</t>
+          <t>铸造工艺学王淑峰 (1-5,7-8周) 金属材料工程2018-1-3</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -5869,7 +5845,7 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>材料科学基础张芬 (7-16周) 材料化学2019-1-2</t>
+          <t>材料科学基础张芬 (7-12,14-16周) 材料化学2019-1-2</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr"/>
@@ -6020,7 +5996,7 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>高分子化学韩永芹 (1-9周) 材料化学2019-1-2</t>
+          <t>高分子化学韩永芹 (1-8周) 材料化学2019-1-2</t>
         </is>
       </c>
       <c r="N54" t="inlineStr"/>
@@ -6092,7 +6068,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>物理化学黄永清 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学黄永清 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -6105,7 +6081,7 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>无机化学付民 (4-19周) 应用化学2021-1</t>
+          <t>无机化学付民 (4-18周) 应用化学2021-1</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -6122,7 +6098,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>物理化学黄永清 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学黄永清 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -6184,7 +6160,7 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>普通地质学张丽萍 (4-11周) 水文与水资源工程2021-1</t>
+          <t>普通地质学张丽萍 (4-5,7-11周) 水文与水资源工程2021-1</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -6192,11 +6168,7 @@
           <t>沉积岩岩石学樊爱萍 (6-13周) 资源勘查工程2020-3</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>会计学(B)刘英姿 (1-8周) 工商管理2020-1-2</t>
-        </is>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
@@ -6207,7 +6179,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)王惠 (4-19周) 应用化学2021-1</t>
+          <t>大学英语（A)(2-1)王惠 (4-18周) 应用化学2021-1</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -6221,11 +6193,7 @@
           <t>专业英语张军建,郑雪 (4-13周) 资源勘查工程（海洋矿产资源方向）2019</t>
         </is>
       </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)李恒 (4-19周) 勘查技术与工程2021-2</t>
-        </is>
-      </c>
+      <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr">
         <is>
           <t>会计学(B)刘英姿 (1-8周) 工商管理2020-1-2</t>
@@ -6508,7 +6476,7 @@
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr">
         <is>
-          <t>生产计划与管理 田莹 (1-2,7-12周) 机械设计制造及其自动化2018-1-3</t>
+          <t>生产计划与管理 田莹 (1-2,8-12周) 机械设计制造及其自动化2018-1-3</t>
         </is>
       </c>
       <c r="U59" t="inlineStr"/>
@@ -6525,7 +6493,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>生产计划与管理 田莹 (1-2,7-12周) 机械设计制造及其自动化2018-1-3</t>
+          <t>生产计划与管理 田莹 (1-2,8-12周) 机械设计制造及其自动化2018-1-3</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr"/>
@@ -6582,7 +6550,7 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李美 (4-19周) 遥感科学与技术2021-2</t>
+          <t>大学英语（A)(2-1)李美 (4-18周) 遥感科学与技术2021-2</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -6597,11 +6565,7 @@
       </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>工程力学邱月 (7-18周) 金属材料工程2020-3-4</t>
-        </is>
-      </c>
+      <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr">
         <is>
           <t>财务分析赵桐 (1-9周) 会计学2019-2</t>
@@ -6752,7 +6716,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)翟清永 (4-19周) 遥感科学与技术2021-1</t>
+          <t>大学英语（A)(2-1)翟清永 (4-18周) 遥感科学与技术2021-1</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -6787,7 +6751,7 @@
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>国际经济法学韩天竹,牛哲莉 (1-16周) 法学2019-1-3</t>
+          <t>国际经济法学韩天竹,牛哲莉 (1-6,8周) 法学2019-1-3</t>
         </is>
       </c>
       <c r="U62" t="inlineStr"/>
@@ -6840,7 +6804,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>构造地质学金爱文 (1-10周) 资源勘查工程（海洋矿产资源方向）2019</t>
+          <t>构造地质学金爱文 (1-8,10周) 资源勘查工程（海洋矿产资源方向）2019</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -6945,7 +6909,7 @@
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>岩体力学张伟杰 (3-8周) 地质工程2019-1-2</t>
+          <t>岩体力学张伟杰 (3-5,7-8周) 地质工程2019-1-2</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -6974,7 +6938,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)姜妮 (4-19周) 地理信息科学2021-2</t>
+          <t>大学英语（A)(2-1)姜妮 (4-18周) 地理信息科学2021-2</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -7008,14 +6972,10 @@
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)姜妮 (4-19周) 地理信息科学2021-2</t>
-        </is>
-      </c>
-      <c r="X64" t="inlineStr">
-        <is>
-          <t>构造地质学张丽萍 (1-8周) 勘查技术与工程2019-1-2</t>
-        </is>
-      </c>
+          <t>大学英语（A)(2-1)姜妮 (4-18周) 地理信息科学2021-2</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="inlineStr"/>
@@ -7056,7 +7016,11 @@
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>思想道德与法治徐玉明 (4-15周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr">
         <is>
           <t>大地测量学基础郭金运 (1-14周) 测绘工程2019-3</t>
@@ -7231,7 +7195,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>普通地质学王泽利 (4-15周) 资源勘查工程2021-2</t>
+          <t>普通地质学王泽利 (4-10,12-15周) 资源勘查工程2021-2</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -7258,7 +7222,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>构造地质学孟元库 (8周) 资源勘查工程2019-1</t>
+        </is>
+      </c>
       <c r="M67" t="inlineStr">
         <is>
           <t>大学英语（A)(2-1)张玉亮 (4-19周) 测绘工程2021-5</t>
@@ -7438,7 +7406,11 @@
           <t>有机化学（2-2）高登征 (1-8周) 生物工程2020-1-2</t>
         </is>
       </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>岩土工程勘察尹会永 (5-14周) 地质工程2018-2</t>
+        </is>
+      </c>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
@@ -7634,7 +7606,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>水灾害防治魏久传 (6-13周) 水文与水资源工程2018-2</t>
+          <t>水灾害防治魏久传 (6-12周) 水文与水资源工程2018-2</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -7838,7 +7810,7 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>物理化学孔霞 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学孔霞 (4-12,14-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -8004,7 +7976,7 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>物理化学赵沛文 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学赵沛文 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -8023,7 +7995,7 @@
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr">
         <is>
-          <t>物理化学赵沛文 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学赵沛文 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="X75" t="inlineStr"/>
@@ -8031,7 +8003,7 @@
       <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>无机化学付民 (4-19周) 应用化学2021-1</t>
+          <t>无机化学付民 (4-18周) 应用化学2021-1</t>
         </is>
       </c>
       <c r="AB75" t="inlineStr"/>
@@ -8266,13 +8238,21 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>J14-513室</t>
+          <t>J14-514室</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>招贴设计李妍 (5-9周) 环境设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>招贴设计李妍 (5-9周) 环境设计2019-1-2</t>
+        </is>
+      </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
@@ -8286,7 +8266,11 @@
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>招贴设计李妍 (5-9周) 环境设计2019-1-2</t>
+        </is>
+      </c>
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr"/>
@@ -8299,16 +8283,8 @@
       <c r="AD79" t="inlineStr"/>
       <c r="AE79" t="inlineStr"/>
       <c r="AF79" t="inlineStr"/>
-      <c r="AG79" t="inlineStr">
-        <is>
-          <t>从思维创新到大创实践柴龙国,戴宜雯,刘善德,杨彬,张玉萍 (8-15周) 临班479</t>
-        </is>
-      </c>
-      <c r="AH79" t="inlineStr">
-        <is>
-          <t>从思维创新到大创实践柴龙国,戴宜雯,刘善德,杨彬,张玉萍 (8-15周) 临班479</t>
-        </is>
-      </c>
+      <c r="AG79" t="inlineStr"/>
+      <c r="AH79" t="inlineStr"/>
       <c r="AI79" t="inlineStr"/>
       <c r="AJ79" t="inlineStr"/>
       <c r="AK79" t="inlineStr"/>
@@ -8319,45 +8295,53 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>J14-514室</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
+          <t>J14-516室</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>环境设计专业导论甄珍等 (6-13周) 环境设计2021-1-2</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>招贴设计李妍 (5-9周) 环境设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>招贴设计李妍 (5-9周) 环境设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>设计素描李强 (4-10周) 环境设计2021-2</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>设计素描李强 (4-10周) 环境设计2021-2</t>
+        </is>
+      </c>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr">
-        <is>
-          <t>招贴设计李妍 (5-9周) 环境设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
       <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
-      <c r="Z80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>设计素描李强 (4-10周) 环境设计2021-2</t>
+        </is>
+      </c>
+      <c r="Z80" t="inlineStr">
+        <is>
+          <t>设计素描李强 (4-10周) 环境设计2021-2</t>
+        </is>
+      </c>
       <c r="AA80" t="inlineStr"/>
       <c r="AB80" t="inlineStr"/>
       <c r="AC80" t="inlineStr"/>
@@ -8376,15 +8360,19 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>J14-516室</t>
+          <t>J14-520室</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>环境设计专业导论甄珍等 (6-13周) 环境设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
+          <t>设计概论姜涛 (4-8周) 视觉传达设计2021-2 设计概论岳文婧 (4-8周) 视觉传达设计2021-1</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>设计概论姜涛 (4-8周) 视觉传达设计2021-2 设计概论岳文婧 (4-8周) 视觉传达设计2021-1</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
@@ -8393,36 +8381,44 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>设计素描李强 (4-10周) 环境设计2021-2</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>设计素描李强 (4-10周) 环境设计2021-2</t>
-        </is>
-      </c>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr">
-        <is>
-          <t>设计素描李强 (4-10周) 环境设计2021-2</t>
-        </is>
-      </c>
-      <c r="Z81" t="inlineStr">
-        <is>
-          <t>设计素描李强 (4-10周) 环境设计2021-2</t>
-        </is>
-      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>设计素描姜涛 (4-8周) 视觉传达设计2021-2 设计素描岳文婧 (4-8周) 视觉传达设计2021-1</t>
+        </is>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>设计素描姜涛 (4-8周) 视觉传达设计2021-2 设计素描岳文婧 (4-8周) 视觉传达设计2021-1</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>设计素描姜涛 (4-8周) 视觉传达设计2021-2 设计素描岳文婧 (4-8周) 视觉传达设计2021-1</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>设计素描姜涛 (4-8周) 视觉传达设计2021-2 设计素描岳文婧 (4-8周) 视觉传达设计2021-1</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>设计素描姜涛 (4-8周) 视觉传达设计2021-2 设计素描岳文婧 (4-8周) 视觉传达设计2021-1</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>设计素描姜涛 (4-8周) 视觉传达设计2021-2 设计素描岳文婧 (4-8周) 视觉传达设计2021-1</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr"/>
       <c r="AA81" t="inlineStr"/>
       <c r="AB81" t="inlineStr"/>
       <c r="AC81" t="inlineStr"/>
@@ -8441,20 +8437,16 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>J14-520室</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>设计概论姜涛 (4-8周) 视觉传达设计2021-2 设计概论岳文婧 (4-8周) 视觉传达设计2021-1</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>设计概论姜涛 (4-8周) 视觉传达设计2021-2 设计概论岳文婧 (4-8周) 视觉传达设计2021-1</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr"/>
+          <t>J14-524室</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>设计美学岳文婧 (7-9周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
@@ -8462,43 +8454,55 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>设计美学岳文婧 (7-9周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>设计美学岳文婧 (7-9周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>设计美学岳文婧 (7-9周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>设计美学岳文婧 (7-9周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
       <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>摄影基础孙德波 (8-10周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>设计素描姜涛 (4-8周) 视觉传达设计2021-2 设计素描岳文婧 (4-8周) 视觉传达设计2021-1</t>
-        </is>
-      </c>
-      <c r="T82" t="inlineStr">
-        <is>
-          <t>设计素描姜涛 (4-8周) 视觉传达设计2021-2 设计素描岳文婧 (4-8周) 视觉传达设计2021-1</t>
-        </is>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>设计素描姜涛 (4-8周) 视觉传达设计2021-2 设计素描岳文婧 (4-8周) 视觉传达设计2021-1</t>
-        </is>
-      </c>
-      <c r="V82" t="inlineStr">
-        <is>
-          <t>设计素描姜涛 (4-8周) 视觉传达设计2021-2 设计素描岳文婧 (4-8周) 视觉传达设计2021-1</t>
-        </is>
-      </c>
+          <t>摄影基础孙德波 (8-10周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
       <c r="W82" t="inlineStr">
         <is>
-          <t>设计素描姜涛 (4-8周) 视觉传达设计2021-2 设计素描岳文婧 (4-8周) 视觉传达设计2021-1</t>
+          <t>摄影基础孙德波 (8-10周) 视觉传达设计2020-1-2</t>
         </is>
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>设计素描姜涛 (4-8周) 视觉传达设计2021-2 设计素描岳文婧 (4-8周) 视觉传达设计2021-1</t>
-        </is>
-      </c>
-      <c r="Y82" t="inlineStr"/>
+          <t>摄影基础孙德波 (8-10周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>摄影基础孙德波 (8-10周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
       <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="inlineStr"/>
@@ -8518,16 +8522,20 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>J14-524室</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>设计美学岳文婧 (7-9周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
+          <t>J14-526室</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>包装设计蔡颖君 (7-9周) 视觉传达设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>包装设计蔡颖君 (7-9周) 视觉传达设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
@@ -8537,53 +8545,33 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>设计美学岳文婧 (7-9周) 视觉传达设计2020-1-2</t>
+          <t>包装设计蔡颖君 (7-9周) 视觉传达设计2019-1-2</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>设计美学岳文婧 (7-9周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>设计美学岳文婧 (7-9周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>设计美学岳文婧 (7-9周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
+          <t>包装设计蔡颖君 (7-9周) 视觉传达设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>摄影基础孙德波 (8-10周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>摄影基础孙德波 (8-10周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr">
         <is>
-          <t>摄影基础孙德波 (8-10周) 视觉传达设计2020-1-2</t>
+          <t>包装设计蔡颖君 (7-9周) 视觉传达设计2019-1-2</t>
         </is>
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>摄影基础孙德波 (8-10周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="Y83" t="inlineStr">
-        <is>
-          <t>摄影基础孙德波 (8-10周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
+          <t>包装设计蔡颖君 (7-9周) 视觉传达设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr"/>
       <c r="AA83" t="inlineStr"/>
       <c r="AB83" t="inlineStr"/>
@@ -8603,55 +8591,55 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>J14-526室</t>
+          <t>J14-528室</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>包装设计蔡颖君 (7-9周) 视觉传达设计2019-1-2</t>
+          <t>工艺美术史包春燕 (1-8周) 产品设计2020-1-2</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>包装设计蔡颖君 (7-9周) 视觉传达设计2019-1-2</t>
+          <t>工艺美术史包春燕 (1-8周) 产品设计2020-1-2</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>产品设计程序与方 法张宁 (6-11周) 产品设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>产品设计程序与方 法张宁 (6-11周) 产品设计2020-1-2</t>
+        </is>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>包装设计蔡颖君 (7-9周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>包装设计蔡颖君 (7-9周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>产品设计程序与方 法张宁 (6-11周) 产品设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>产品设计程序与方 法张宁 (6-11周) 产品设计2020-1-2</t>
+        </is>
+      </c>
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr">
-        <is>
-          <t>包装设计蔡颖君 (7-9周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="X84" t="inlineStr">
-        <is>
-          <t>包装设计蔡颖君 (7-9周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr"/>
       <c r="AA84" t="inlineStr"/>
@@ -8672,47 +8660,31 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>J14-528室</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>工艺美术史包春燕 (1-8周) 产品设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>工艺美术史包春燕 (1-8周) 产品设计2020-1-2</t>
-        </is>
-      </c>
+          <t>J14-530室</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>产品设计程序与方 法张宁 (6-11周) 产品设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>产品设计程序与方 法张宁 (6-11周) 产品设计2020-1-2</t>
-        </is>
-      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>产品设计程序与方 法张宁 (6-11周) 产品设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>产品设计程序与方 法张宁 (6-11周) 产品设计2020-1-2</t>
-        </is>
-      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>设计素描孙彤彤 (4-10周) 环境设计2021-1</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>设计素描孙彤彤 (4-10周) 环境设计2021-1</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
@@ -8721,8 +8693,16 @@
       <c r="V85" t="inlineStr"/>
       <c r="W85" t="inlineStr"/>
       <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
-      <c r="Z85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>设计素描孙彤彤 (4-10周) 环境设计2021-1</t>
+        </is>
+      </c>
+      <c r="Z85" t="inlineStr">
+        <is>
+          <t>设计素描孙彤彤 (4-10周) 环境设计2021-1</t>
+        </is>
+      </c>
       <c r="AA85" t="inlineStr"/>
       <c r="AB85" t="inlineStr"/>
       <c r="AC85" t="inlineStr"/>
@@ -8741,7 +8721,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>J14-530室</t>
+          <t>J14-536室</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -8754,17 +8734,17 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>设计素描孙彤彤 (4-10周) 环境设计2021-1</t>
-        </is>
-      </c>
+      <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr">
         <is>
-          <t>设计素描孙彤彤 (4-10周) 环境设计2021-1</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr"/>
+          <t>工业设计史薄其芳 (7-14周) 产品设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>工业设计史薄其芳 (7-14周) 产品设计2021-1-2</t>
+        </is>
+      </c>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr"/>
@@ -8774,16 +8754,8 @@
       <c r="V86" t="inlineStr"/>
       <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr">
-        <is>
-          <t>设计素描孙彤彤 (4-10周) 环境设计2021-1</t>
-        </is>
-      </c>
-      <c r="Z86" t="inlineStr">
-        <is>
-          <t>设计素描孙彤彤 (4-10周) 环境设计2021-1</t>
-        </is>
-      </c>
+      <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr"/>
       <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="inlineStr"/>
       <c r="AC86" t="inlineStr"/>
@@ -8802,34 +8774,66 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>J14-536室</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
+          <t>J14-540室</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>智能交互产品设计贾乐宾 (4-9周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>智能交互产品设计贾乐宾 (4-9周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>智能交互产品设计贾乐宾 (4-9周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>智能交互产品设计贾乐宾 (4-9周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>智能交互产品设计贾乐宾 (4-9周) 产品设计2019-1-2</t>
+        </is>
+      </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>工业设计史薄其芳 (7-14周) 产品设计2021-1-2</t>
-        </is>
-      </c>
+      <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>工业设计史薄其芳 (7-14周) 产品设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr"/>
+          <t>交通工具设计贾乐宾 (6-11周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>交通工具设计贾乐宾 (6-11周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>交通工具设计贾乐宾 (6-11周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>交通工具设计贾乐宾 (6-11周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>交通工具设计贾乐宾 (6-11周) 产品设计2019-1-2</t>
+        </is>
+      </c>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr"/>
@@ -8855,34 +8859,18 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>J14-540室</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>智能交互产品设计贾乐宾 (4-9周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>智能交互产品设计贾乐宾 (4-9周) 产品设计2019-1-2</t>
-        </is>
-      </c>
+          <t>J14-542室</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>智能交互产品设计贾乐宾 (4-9周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>智能交互产品设计贾乐宾 (4-9周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>智能交互产品设计贾乐宾 (4-9周) 产品设计2019-1-2</t>
-        </is>
-      </c>
+          <t>设计素描(1-1)包春燕 (4-8周) 产品设计2021-1</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -8890,38 +8878,46 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>交通工具设计贾乐宾 (6-11周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>交通工具设计贾乐宾 (6-11周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>交通工具设计贾乐宾 (6-11周) 产品设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr">
         <is>
-          <t>交通工具设计贾乐宾 (6-11周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="S88" t="inlineStr">
-        <is>
-          <t>交通工具设计贾乐宾 (6-11周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
+          <t>设计素描(1-1)包春燕 (4-8周) 产品设计2021-1</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>设计素描(1-1)包春燕 (4-8周) 产品设计2021-1</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>设计素描(1-1)包春燕 (4-8周) 产品设计2021-1</t>
+        </is>
+      </c>
       <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
-      <c r="Z88" t="inlineStr"/>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>设计素描(1-1)包春燕 (4-8周) 产品设计2021-2</t>
+        </is>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>设计素描(1-1)包春燕 (4-8周) 产品设计2021-2</t>
+        </is>
+      </c>
+      <c r="Y88" t="inlineStr">
+        <is>
+          <t>设计素描(1-1)包春燕 (4-8周) 产品设计2021-2</t>
+        </is>
+      </c>
+      <c r="Z88" t="inlineStr">
+        <is>
+          <t>设计素描(1-1)包春燕 (4-8周) 产品设计2021-2</t>
+        </is>
+      </c>
       <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="inlineStr"/>
       <c r="AC88" t="inlineStr"/>
@@ -8940,65 +8936,65 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>J14-542室</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
+          <t>J14-525室</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>设计素描(1-1)包春燕 (4-8周) 产品设计2021-1</t>
-        </is>
-      </c>
+      <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>地质学基础孔凡梅,倪金龙,张春荣 (8-19周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
       <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>理论力学（A）陈俊国 (1-4,6-17周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>设计素描(1-1)包春燕 (4-8周) 产品设计2021-1</t>
-        </is>
-      </c>
-      <c r="S89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>机械设计基础（A）陈修龙 (8-15周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>理论力学（A）陈俊国 (1-4,6-17周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t>设计素描(1-1)包春燕 (4-8周) 产品设计2021-1</t>
-        </is>
-      </c>
-      <c r="U89" t="inlineStr">
-        <is>
-          <t>设计素描(1-1)包春燕 (4-8周) 产品设计2021-1</t>
-        </is>
-      </c>
+          <t>地质学基础孔凡梅,倪金龙,张春荣 (8-19周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr"/>
       <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr">
-        <is>
-          <t>设计素描(1-1)包春燕 (4-8周) 产品设计2021-2</t>
-        </is>
-      </c>
-      <c r="X89" t="inlineStr">
-        <is>
-          <t>设计素描(1-1)包春燕 (4-8周) 产品设计2021-2</t>
-        </is>
-      </c>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>设计素描(1-1)包春燕 (4-8周) 产品设计2021-2</t>
-        </is>
-      </c>
-      <c r="Z89" t="inlineStr">
-        <is>
-          <t>设计素描(1-1)包春燕 (4-8周) 产品设计2021-2</t>
-        </is>
-      </c>
+          <t>机械设计基础（A）陈修龙 (8-19周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
+      <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="inlineStr"/>
       <c r="AC89" t="inlineStr"/>
@@ -9017,66 +9013,98 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>J14-525室</t>
+          <t>J14-332室</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>地质学基础孔凡梅,倪金龙,张春荣 (8-19周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr"/>
+          <t>专业英语常象春,张鹏飞 (4-13周) 资源勘查工程2019-1</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>采矿学李占海 (1-11周) 采矿工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>工程地质学基础郭建斌 (8-16周) 地质工程2019-3</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>构造地质学孟元库 (4-5,7-13周) 资源勘查工程2019-1</t>
+        </is>
+      </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>理论力学（A）陈俊国 (1-4,6-17周) 采矿工程（宋振骐班）</t>
+          <t>地球物理勘探李建平 (4-15周) 资源勘查工程（海洋矿产资源方向）2018</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>构造地质学程燕君 (4-12周) 资源勘查工程2019-3</t>
+        </is>
+      </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
+          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>采矿学李占海 (1-11周) 采矿工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>地质学基础宋志刚,赵延洋 (4-15周) 勘查技术与工程2021-2</t>
+        </is>
+      </c>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>机械设计基础（A）陈修龙 (8-19周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
-      <c r="R90" t="inlineStr"/>
+          <t>构造地质学程燕君 (4-12周) 资源勘查工程2019-3</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>构造地质学孟元库 (4-5,7-13周) 资源勘查工程2019-1</t>
+        </is>
+      </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>理论力学（A）陈俊国 (1-4,6-17周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
-      <c r="T90" t="inlineStr">
-        <is>
-          <t>地质学基础孔凡梅,倪金龙,张春荣 (8-19周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
+          <t>地球物理勘探李建平 (4-15周) 资源勘查工程（海洋矿产资源方向）2018</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr"/>
-      <c r="W90" t="inlineStr"/>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>水文地质与工程地质学高宗军,张彧齐 (3-14周) 勘查技术与工程2019-1-2</t>
+        </is>
+      </c>
       <c r="X90" t="inlineStr"/>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>机械设计基础（A）陈修龙 (8-19周) 采矿工程（宋振骐班）</t>
+          <t>专业英语魏友卿,余继峰 (4-13周) 资源勘查工程2019-2</t>
         </is>
       </c>
       <c r="Z90" t="inlineStr"/>
-      <c r="AA90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr">
+        <is>
+          <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
+        </is>
+      </c>
       <c r="AB90" t="inlineStr"/>
       <c r="AC90" t="inlineStr"/>
       <c r="AD90" t="inlineStr"/>
@@ -9088,111 +9116,6 @@
       <c r="AJ90" t="inlineStr"/>
       <c r="AK90" t="inlineStr"/>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>J14-332室</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>专业英语常象春,张鹏飞 (4-13周) 资源勘查工程2019-1</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>采矿学李占海 (1-11周) 采矿工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>工程地质学基础郭建斌 (8-16周) 地质工程2019-3</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>构造地质学孟元库 (4-13周) 资源勘查工程2019-1</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>地球物理勘探李建平 (4-15周) 资源勘查工程（海洋矿产资源方向）2018</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>采矿学李占海 (1-11周) 采矿工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>地质学基础宋志刚,赵延洋 (4-15周) 勘查技术与工程2021-2</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr">
-        <is>
-          <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
-        </is>
-      </c>
-      <c r="R91" t="inlineStr">
-        <is>
-          <t>构造地质学孟元库 (4-13周) 资源勘查工程2019-1</t>
-        </is>
-      </c>
-      <c r="S91" t="inlineStr">
-        <is>
-          <t>地球物理勘探李建平 (4-15周) 资源勘查工程（海洋矿产资源方向）2018</t>
-        </is>
-      </c>
-      <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr"/>
-      <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr">
-        <is>
-          <t>专业英语魏友卿,余继峰 (4-13周) 资源勘查工程2019-2</t>
-        </is>
-      </c>
-      <c r="Z91" t="inlineStr"/>
-      <c r="AA91" t="inlineStr">
-        <is>
-          <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
-        </is>
-      </c>
-      <c r="AB91" t="inlineStr"/>
-      <c r="AC91" t="inlineStr"/>
-      <c r="AD91" t="inlineStr"/>
-      <c r="AE91" t="inlineStr"/>
-      <c r="AF91" t="inlineStr"/>
-      <c r="AG91" t="inlineStr"/>
-      <c r="AH91" t="inlineStr"/>
-      <c r="AI91" t="inlineStr"/>
-      <c r="AJ91" t="inlineStr"/>
-      <c r="AK91" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/8.xlsx
+++ b/excel/8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK100"/>
+  <dimension ref="A1:AK99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -818,7 +818,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>电子商务专业英语文献阅读孙丽华 (1-9周) 电子商务2019-2</t>
+          <t>电子商务专业英语文献阅读孙丽华 (1,3-9周) 电子商务2019-2</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>火灾事故调查杜文州 (4-11周) 安全工程2019-3-4</t>
+          <t>火灾事故调查杜文州 (4-5,8-11周) 安全工程2019-3-4</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -935,7 +935,7 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>火灾事故调查杜文州 (4-11周) 安全工程2019-3-4</t>
+          <t>火灾事故调查杜文州 (4-5,8-11周) 安全工程2019-3-4</t>
         </is>
       </c>
       <c r="U4" t="inlineStr"/>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>市场调查与预测宋平 (1-9周) 工商管理(社会体育指导与管理)2019</t>
+          <t>市场调查与预测宋平 (1,3-9周) 工商管理(社会体育指导与管理)2019</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1141,7 +1141,7 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>材料腐蚀与防护岳丽杰 (1-9周) 金属材料工程2019-1-2</t>
+          <t>材料腐蚀与防护岳丽杰 (1,3-9周) 金属材料工程2019-1-2</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1186,11 +1186,7 @@
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>海图制图王瑞富 (1-10周) 测绘工程2020-1-5</t>
-        </is>
-      </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr">
         <is>
           <t>材料科学基础 (A)刘洪权 (7-9周) 金属材料工程2020-4</t>
@@ -1206,22 +1202,22 @@
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>中级财务会计（I）郝敏,吴文文 (1-12周) 会计学(辅修)2020</t>
+          <t>中级财务会计（I）郝敏,吴文文 (1,3-12周) 会计学(辅修)2020</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>中级财务会计（I）郝敏,吴文文 (1-12周) 会计学(辅修)2020</t>
+          <t>中级财务会计（I）郝敏,吴文文 (1,3-12周) 会计学(辅修)2020</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>应用统计学王家坤 (1-11周) 会计学(辅修)2020</t>
+          <t>应用统计学王家坤 (3-11周) 会计学(辅修)2020</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>应用统计学王家坤 (1-11周) 会计学(辅修)2020</t>
+          <t>应用统计学王家坤 (3-11周) 会计学(辅修)2020</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr"/>
@@ -1258,7 +1254,7 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>人力资源管理袁清和 (1-8周) 工业工程2020-1-2</t>
+          <t>人力资源管理袁清和 (1,3-8周) 工业工程2020-1-2</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1367,7 +1363,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>会计信息系统（A）崔树德 (1-14周) 会计学2019-1-2</t>
+          <t>会计信息系统（A）崔树德 (1,3-14周) 会计学2019-1-2</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1441,19 +1437,19 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>EXCEL财务应用赵桐 (1-12周) 会计学(辅修)2019</t>
+          <t>EXCEL财务应用赵桐 (1-3,5-12周) 会计学(辅修)2019</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>审计学刘英姿 (1-12周) 会计学(辅修)2019</t>
+          <t>审计学刘英姿 (1,3-12周) 会计学(辅修)2019</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>审计学刘英姿 (1-12周) 会计学(辅修)2019</t>
+          <t>审计学刘英姿 (1,3-12周) 会计学(辅修)2019</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1618,7 +1614,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>工程测量学刘尚国 (1-12周) 测绘工程2019-3</t>
+          <t>工程测量学刘尚国 (1,3-6,8-12周) 测绘工程2019-3</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -1722,7 +1718,11 @@
           <t>地下水污染与防治夏璐 (8-16周) 地质工程2019-1-3</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>社会主义发展史曹丙燕 (1-8周) 智能制造工程2021-1-2班,能源与动力工程2021-1-3</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>结晶学与矿物学杜龙,毛光周 (5-8周) 资源勘查工程2021-1-2</t>
@@ -1773,7 +1773,11 @@
         </is>
       </c>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>社会主义发展史曹丙燕 (1-8周) 智能制造工程2021-1-2班,能源与动力工程2021-1-3</t>
+        </is>
+      </c>
       <c r="V11" t="inlineStr">
         <is>
           <t>矿相学郑雪 (3-10周) 资源勘查工程2020-1-3</t>
@@ -2095,12 +2099,12 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-2）宋治涛 (1-14周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
+          <t>Python 程序设计刘洪强 (1-9周) 地理信息科学2019-1-3</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-2）宋治涛 (1-14周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+          <t>误差理论与测量平差基础刘国林 (1-8周) 遥感科学与技术2020-3</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -2267,11 +2271,7 @@
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>液压传动与控制王成龙,王亮 (2-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
@@ -2301,11 +2301,7 @@
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>机械设备故障诊断技术基础胡效东,孙爱芹 (6-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
           <t>机械原理杨通 (7-17双周) 机械设计制造及其自动化2020-2-3</t>
@@ -2326,11 +2322,7 @@
           <t>机械设计基础（A）陈毕胜 (4-15周) 能源与动力工程2020-1-3</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>液压传动与控制王成龙,王亮 (2-13周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr">
         <is>
           <t>微机原理及应用王宝仁 (4-13周) 机械设计制造及其自动化2020-1-2</t>
@@ -2347,11 +2339,7 @@
         </is>
       </c>
       <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>机械设备故障诊断技术基础胡效东,孙爱芹 (6-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
@@ -2391,11 +2379,7 @@
           <t>机械设计基础鲍怀谦,曹冲振,孙静 (4-9,12-18周) 智能制造工程2020-1-3</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>计算机数控系统武洪恩 (1-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
@@ -2430,11 +2414,7 @@
           <t>微观经济学(A)陈爱萍 (8-17周) 会计学2021-2</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>计算机数控系统武洪恩 (1-13周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr">
         <is>
@@ -2481,7 +2461,7 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>化工原理（B）刘迪 (3-13周) 材料化学2019-1-2</t>
+          <t>化工原理（B）刘迪 (4-13周) 材料化学2019-1-2</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2516,7 +2496,7 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>工程测量学刘尚国 (1-12周) 测绘工程2019-3</t>
+          <t>工程测量学刘尚国 (1-6,8-12周) 测绘工程2019-3</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
@@ -2524,7 +2504,7 @@
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr">
         <is>
-          <t>化工原理（B）刘迪 (3-13周) 材料化学2019-1-2</t>
+          <t>化工原理（B）刘迪 (4-13周) 材料化学2019-1-2</t>
         </is>
       </c>
       <c r="X18" t="inlineStr"/>
@@ -2600,12 +2580,12 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Python 程序设计刘洪强 (1-9周) 地理信息科学2019-1-3</t>
+          <t>高等数学（A）（2-2）宋治涛 (1-14周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>误差理论与测量平差基础刘国林 (1-8周) 遥感科学与技术2020-3</t>
+          <t>高等数学（A）（2-2）宋治涛 (1-8周) 工程力学2021-1-2班,工业工程2021-1-2</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
@@ -2626,7 +2606,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>土地管理与信息系统李云岭 (1-9周) 地理信息科学2019-1-3</t>
+          <t>土地管理与信息系统李云岭 (1,3-9周) 地理信息科学2019-1-3</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr"/>
@@ -2740,7 +2720,7 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>材料力学（B）赵增辉 (1-11周) 采矿工程2020-1-2</t>
+          <t>材料力学（B）赵增辉 (1,3-11周) 采矿工程2020-1-2</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2845,7 +2825,7 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>流体力学辛林 (6-8周) 安全工程2020-3</t>
+          <t>流体力学陈旭,辛林 (6-8周) 安全工程2020-3-4</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2875,11 +2855,7 @@
           <t>火灾事故调查孔彪 (4-11周) 安全工程2019-1-2</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>流体力学陈旭 (6-13周) 安全工程2020-4</t>
-        </is>
-      </c>
+      <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr">
         <is>
@@ -2990,7 +2966,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>可编程控制器姜雪,王德堂 (1-8周) 机械电子工程2019-1-3</t>
+          <t>可编程控制器姜雪,王德堂 (1,3-8周) 机械电子工程2019-1-3</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -3208,7 +3184,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>金属材料工程专业英语朱慧灵 (1-8周) 金属材料工程2019-4-5</t>
+          <t>金属材料工程专业英语朱慧灵 (1,3-8周) 金属材料工程2019-4-5</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3351,7 +3327,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>液压传动与控制杨扬 (1-9周) 机械电子工程2019-5</t>
+          <t>液压传动与控制杨扬 (1,3-9周) 机械电子工程2019-5</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -3364,7 +3340,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>金融专业英语闻德美 (1-9周) 金融学2019-1-2</t>
+          <t>金融专业英语闻德美 (1,3-9周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -3447,7 +3423,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>化工分离工程高军 (1-9周) 化学工程与工艺2019-1-3</t>
+          <t>化工分离工程高军 (1,3-9周) 化学工程与工艺2019-1-3</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -3469,7 +3445,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>应急与危机心理干预于海明 (1-8周) 安全工程（应急管理方向）2019</t>
+          <t>应急与危机心理干预刘震 (3-8周) 安全工程（应急管理方向）2019</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -3502,7 +3478,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>分析化学陈伟 (1-8周) 应用化学2021-2</t>
+          <t>分析化学陈伟 (1,3-8周) 应用化学2021-2</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
@@ -3607,7 +3583,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>应急与危机心理干预于海明 (1-8周) 安全工程（应急管理方向）2019</t>
+          <t>应急与危机心理干预刘震 (3-8周) 安全工程（应急管理方向）2019</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
@@ -3650,16 +3626,8 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>机械设计叶铁丽 (1-15周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>流体力学陈旭 (6-13周) 安全工程2020-4</t>
-        </is>
-      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
           <t>机械制图（2）朱苏宁 (8-9,12-19周) 机械电子工程(留学生)2021</t>
@@ -3676,11 +3644,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>机械设计叶铁丽 (1-15周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
           <t>数字摄影测量原理与方法解斐斐 (1-12周) 遥感科学与技术2019-2-3</t>
@@ -3706,11 +3670,7 @@
         </is>
       </c>
       <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr">
-        <is>
-          <t>机械设计叶铁丽 (1-15周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr"/>
@@ -3746,7 +3706,7 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>计量经济学（A）陶敏 (1-11周) 国际经济与贸易2019-1-2</t>
+          <t>计量经济学（A）陶敏 (1,3-11周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3777,12 +3737,12 @@
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr">
         <is>
-          <t>银行结算*邢苗 (1-9周) 投资学2019-1-2</t>
+          <t>银行结算*邢苗 (1,3-9周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>绿色物流杨珍花 (1-8周) 物流管理2020-1-2</t>
+          <t>绿色物流杨珍花 (1,3-8周) 物流管理2020-1-2</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr"/>
@@ -3810,11 +3770,7 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>可编程控制器郝妮妮 (6-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
@@ -3836,11 +3792,7 @@
           <t>材料分析测试技术汪静 (1-12周) 材料化学2019-1</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>机械CAD丁淑辉 (1-12周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
@@ -3851,22 +3803,14 @@
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>可编程控制器郝妮妮 (6-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr">
         <is>
-          <t>材料分析测试技术汪静 (1-12周) 材料化学2019-1</t>
-        </is>
-      </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>机械CAD丁淑辉 (1-12周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+          <t>材料分析测试技术汪静 (1,3-12周) 材料化学2019-1</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
@@ -4121,7 +4065,7 @@
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr">
         <is>
-          <t>古生物学李守军 (1-8周) 资源勘查工程2020-1-3</t>
+          <t>古生物学李守军 (1,3-8周) 资源勘查工程2020-1-3</t>
         </is>
       </c>
       <c r="X35" t="inlineStr"/>
@@ -4285,7 +4229,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>古生物学王平丽 (1-8周) 资源勘查工程2020-1-3</t>
+          <t>古生物学王平丽 (2-8周) 资源勘查工程2020-1-3</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -4373,7 +4317,7 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>概率论与数理统计聂世谦 (1-13周) 金融学2020-1-2班,物流管理2020-1-2</t>
+          <t>概率论与数理统计聂世谦 (1,3-13周) 金融学2020-1-2班,物流管理2020-1-2</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -4554,7 +4498,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>地下工程测量学靳奉祥 (4-15周) 测绘工程2019-1</t>
+          <t>地下工程测量学靳奉祥 (8-15周) 测绘工程2019-1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -4664,7 +4608,7 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>材料成形过程计算机模拟刘杰 (7-9,14-16周) 材料成型及控制工程2019-1</t>
+          <t>材料成形过程计算机模拟刘杰 (8-9,14-16周) 材料成型及控制工程2019-1</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -4690,7 +4634,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>材料成形过程计算机模拟刘杰 (7-9,14-16周) 材料成型及控制工程2019-1</t>
+          <t>材料成形过程计算机模拟刘杰 (8-9,14-16周) 材料成型及控制工程2019-1</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -4703,7 +4647,7 @@
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr">
         <is>
-          <t>机械制造技术基础(B)黄为民 (1-9,14-15双周) 材料成型及控制工程2019-1-2</t>
+          <t>机械制造技术基础(B)黄为民 (4,6,8,14双周) 材料成型及控制工程2019-1-2</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
@@ -4753,7 +4697,7 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>管理学(A)姜秀娟 (1-12周) 大数据管理与应用2021-1-2</t>
+          <t>管理学(A)姜秀娟 (1,3-12周) 大数据管理与应用2021-1-2</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -4784,7 +4728,7 @@
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr">
         <is>
-          <t>计量经济学（A）陶敏 (1-11周) 国际经济与贸易2019-1-2</t>
+          <t>计量经济学（A）陶敏 (1,3-11周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="X42" t="inlineStr"/>
@@ -4821,11 +4765,7 @@
           <t>GNSS测量与数据处理刘智敏 (1-9周) 测绘工程2019-1-3</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>大地测量学基础张燕 (1-10周) 测绘工程2020-4-5</t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
@@ -4846,11 +4786,7 @@
         </is>
       </c>
       <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>GNSS测量与数据处理苏醒 (1-9周) 遥感科学与技术2019-2</t>
-        </is>
-      </c>
+      <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
           <t>GNSS测量与数据处理刘智敏 (1-9周) 测绘工程2019-1-3</t>
@@ -4882,7 +4818,7 @@
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr">
         <is>
-          <t>GNSS测量与数据处理刘智敏 (1-9周) 测绘工程2019-1-3</t>
+          <t>GNSS测量与数据处理刘智敏 (1,3-6,8-9周) 测绘工程2019-1-3</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -5012,7 +4948,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>危险源辨识与控制刘国明 (6-13周) 安全工程2020-5</t>
+          <t>危险源辨识与控制徐翠翠 (6-13周) 安全工程2020-5</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -5061,10 +4997,14 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>危险源辨识与控制刘国明 (6-13周) 安全工程2020-5</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr"/>
+          <t>危险源辨识与控制徐翠翠 (6-13周) 安全工程2020-5</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>流体力学陈旭,辛林 (6-8周) 安全工程2020-3-4</t>
+        </is>
+      </c>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
@@ -5318,12 +5258,12 @@
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr">
         <is>
-          <t>过程流体机械鲍怀谦,孙静 (1-9周) 过程装备与控制工程2019-1-2</t>
+          <t>过程流体机械鲍怀谦,孙静 (1,3-9周) 过程装备与控制工程2019-1-2</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>机械设计(A)高丽 (1-9,14周) 材料成型及控制工程2019-1</t>
+          <t>机械设计(A)高丽 (1,3-9,14周) 材料成型及控制工程2019-1</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr"/>
@@ -5566,7 +5506,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>高分子专业外语刘欣 (2-10周) 高分子材料与工程2019-1-2</t>
+          <t>高分子专业外语刘欣 (3-10周) 高分子材料与工程2019-1-2</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr"/>
@@ -5675,7 +5615,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>材料分析测试技术吴杰 (7-12周) 金属材料工程2019-1</t>
+          <t>材料分析测试技术迟静 (7-12周) 金属材料工程2019-1</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -5701,7 +5641,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>材料腐蚀与防护岳丽杰 (1-9周) 金属材料工程2019-3-4</t>
+          <t>材料腐蚀与防护岳丽杰 (1,3-9周) 金属材料工程2019-3-4</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -5718,7 +5658,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>材料分析测试技术吴杰 (7-12周) 金属材料工程2019-1</t>
+          <t>材料分析测试技术迟静 (7-12周) 金属材料工程2019-1</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -5744,7 +5684,7 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>材料科学基础（B）丁建旭 (1-8周) 新能源材料与器件2020-1</t>
+          <t>材料科学基础（B）丁建旭 (1,3-8周) 新能源材料与器件2020-1</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr"/>
@@ -5790,11 +5730,7 @@
           <t>安全管理学李威君 (6-8周) 安全工程2020-1-2</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Python程序设计施剑 (7-14周) 测绘工程2020-1-5</t>
-        </is>
-      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
           <t>误差理论与测量平差基础石波 (1-12周) 测绘工程2020-4-5</t>
@@ -5828,16 +5764,8 @@
         </is>
       </c>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>Python程序设计施剑 (7-14周) 测绘工程2020-1-5</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>流体力学辛林 (6-13周) 安全工程2020-3</t>
-        </is>
-      </c>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr">
         <is>
           <t>井巷工程蒋邦友 (7-16周) 采矿工程2020-5</t>
@@ -5879,7 +5807,11 @@
           <t>误差理论与测量平差基础石波 (1-12周) 测绘工程2020-4-5</t>
         </is>
       </c>
-      <c r="AB54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>新产品开发流程及就业指导苗永平 (1-8周) 临班199</t>
+        </is>
+      </c>
       <c r="AC54" t="inlineStr"/>
       <c r="AD54" t="inlineStr"/>
       <c r="AE54" t="inlineStr"/>
@@ -5918,7 +5850,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>海洋生物技术李慧娟 (1-8周) 生物工程2019-1-2</t>
+          <t>海洋生物技术李慧娟 (1,3-8周) 生物工程2019-1-2</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -5962,7 +5894,7 @@
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>煤化工工艺学梁鹏 (1-8周) 化学工程与工艺2019-1-3</t>
+          <t>煤化工工艺学梁鹏 (1-5,7-8周) 化学工程与工艺2019-1-3</t>
         </is>
       </c>
       <c r="U55" t="inlineStr"/>
@@ -5974,7 +5906,7 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>海洋生物技术李慧娟 (1-8周) 生物工程2019-1-2</t>
+          <t>海洋生物技术李慧娟 (1,3-8周) 生物工程2019-1-2</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
@@ -6024,7 +5956,7 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>质量管理与可靠性孙友霞 (2-8周) 工业工程2019-1-2</t>
+          <t>质量管理与可靠性孙友霞 (3-8周) 工业工程2019-1-2</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -6116,12 +6048,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>汽轮机原理李志敏 (1-9周) 能源与动力工程2019-1-3</t>
+          <t>汽轮机原理李志敏 (1,3-9周) 能源与动力工程2019-1-3</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>普通化学赵媛媛 (1-8周) 能源与动力工程2019-1-3</t>
+          <t>普通化学赵媛媛 (1,3-8周) 能源与动力工程2019-1-3</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -6386,7 +6318,7 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>计量经济学（A）武传宝 (1-10周) 投资学2019-1-2</t>
+          <t>计量经济学（A）武传宝 (1,3-10周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr"/>
@@ -6782,7 +6714,7 @@
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr">
         <is>
-          <t>普通化学（A）高猛 (1-8周) 环境工程2021-3</t>
+          <t>普通化学（A）高猛 (1,3-8周) 环境工程2021-3</t>
         </is>
       </c>
       <c r="X64" t="inlineStr">
@@ -6971,7 +6903,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>金属材料工程专业英语吴楠楠 (1-8周) 金属材料工程2019-1</t>
+          <t>金属材料工程专业英语吴楠楠 (1,3-8周) 金属材料工程2019-1</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -7095,7 +7027,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>数据挖掘刘彤 (7-14周) 采矿工程（智能开采方向）2019-1-2</t>
+          <t>数据挖掘刘彤 (8-14周) 采矿工程（智能开采方向）2019-1-2</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -7190,7 +7122,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>大地测量学基础郭英 (1-10周) 测绘工程2020-1</t>
+          <t>大地测量学基础郭英 (1-6,8-10周) 测绘工程2020-1</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -7236,7 +7168,7 @@
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr">
         <is>
-          <t>大地测量学基础郭英 (1-10周) 测绘工程2020-1</t>
+          <t>大地测量学基础郭英 (1-6,8-10周) 测绘工程2020-1</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
@@ -7321,7 +7253,7 @@
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>高分子专业外语刘欣 (2-10周) 高分子材料与工程2019-3-4</t>
+          <t>高分子专业外语程桂青 (4-10周) 高分子材料与工程2019-3-4</t>
         </is>
       </c>
       <c r="T71" t="inlineStr"/>
@@ -7329,7 +7261,7 @@
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr">
         <is>
-          <t>普通化学（A）崔立强 (1-8周) 环境工程2021-1-2</t>
+          <t>普通化学（A）崔立强 (1,3-8周) 环境工程2021-1-2</t>
         </is>
       </c>
       <c r="X71" t="inlineStr"/>
@@ -7495,7 +7427,7 @@
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>化工安全与环保徐冬梅 (1-8周) 化学工程与工艺2019-3</t>
+          <t>化工安全与环保徐冬梅 (1,3-8周) 化学工程与工艺2019-3</t>
         </is>
       </c>
       <c r="T73" t="inlineStr"/>
@@ -7537,7 +7469,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>高分子专业外语刘欣 (2-10周) 高分子材料与工程2019-3-4</t>
+          <t>高分子专业外语程桂青 (4-10周) 高分子材料与工程2019-3-4</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -7558,7 +7490,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>大地测量学基础韩晓冬 (1-10周) 测绘工程2020-2</t>
+          <t>大地测量学基础韩晓冬 (1,3-6,8-10周) 测绘工程2020-2</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -7592,7 +7524,7 @@
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr">
         <is>
-          <t>大地测量学基础韩晓冬 (1-10周) 测绘工程2020-2</t>
+          <t>大地测量学基础韩晓冬 (1-6,8-10周) 测绘工程2020-2</t>
         </is>
       </c>
       <c r="T74" t="inlineStr">
@@ -7608,12 +7540,12 @@
       </c>
       <c r="W74" t="inlineStr">
         <is>
-          <t>GNSS测量与数据处理崔健慧 (6-9周) 遥感科学与技术2019-3</t>
+          <t>GNSS测量与数据处理崔健慧 (6,8-9周) 遥感科学与技术2019-3</t>
         </is>
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>微波遥感王志勇 (1-9周) 遥感科学与技术2019-1-3</t>
+          <t>微波遥感王志勇 (1,3-9周) 遥感科学与技术2019-1-3</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
@@ -7759,12 +7691,12 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>有机化学黄小文 (1-16周) 材料化学2020-2</t>
+          <t>有机化学黄小文 (1,3-16周) 材料化学2020-2</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>金属材料工程专业英语白雪 (1-8周) 金属材料工程2019-2</t>
+          <t>金属材料工程专业英语白雪 (1,3-8周) 金属材料工程2019-2</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -7852,7 +7784,7 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>数据挖掘张福平 (1-9周) 电子商务2019-1</t>
+          <t>数据挖掘张福平 (1,3-9周) 电子商务2019-1</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -7995,7 +7927,7 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>汽车理论李玉善 (1-10周) 车辆工程2019-1</t>
+          <t>汽车理论李玉善 (1-4,6-10周) 车辆工程2019-1</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -8199,44 +8131,92 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>J14-523室</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
+          <t>J14-514室</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>景观设计（二）仇同文 (6,8-9周) 环境设计2019-2</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>材料科学基础 (A)曹梅青 (7-11周) 金属材料工程2020-2</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
+          <t>景观设计（二）仇同文 (6,8-9周) 环境设计2019-2</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>景观设计（二）李晓君 (6-9周) 环境设计2019-1</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>景观设计（二）李晓君 (6-9周) 环境设计2019-1</t>
+        </is>
+      </c>
       <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>景观设计（二）李晓君 (6-9周) 环境设计2019-1</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>景观设计（二）李晓君 (6-9周) 环境设计2019-1</t>
+        </is>
+      </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>景观设计（二）仇同文 (6-9周) 环境设计2019-2</t>
+        </is>
+      </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>材料科学基础 (A)曹梅青 (7-11周) 金属材料工程2020-2</t>
+          <t>景观设计（二）仇同文 (6-9周) 环境设计2019-2</t>
         </is>
       </c>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>景观设计（二）李晓君 (6-9周) 环境设计2019-1</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>景观设计（二）李晓君 (6-9周) 环境设计2019-1</t>
+        </is>
+      </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>材料科学基础 (A)曹梅青 (7-11周) 金属材料工程2020-2</t>
-        </is>
-      </c>
-      <c r="U82" t="inlineStr"/>
+          <t>景观设计（二）李晓君 (6-8周) 环境设计2019-1</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>中外建筑史孙照栋 (1-18周) 环境设计2019-1-2</t>
+        </is>
+      </c>
       <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>景观设计（二）仇同文 (6-9周) 环境设计2019-2</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>景观设计（二）仇同文 (6-9周) 环境设计2019-2</t>
+        </is>
+      </c>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>景观设计（二）仇同文 (6-8周) 环境设计2019-2</t>
+        </is>
+      </c>
       <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="inlineStr"/>
@@ -8256,92 +8236,56 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>J14-514室</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>景观设计（二）仇同文 (6-9周) 环境设计2019-2</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>景观设计（二）仇同文 (6-9周) 环境设计2019-2</t>
-        </is>
-      </c>
+          <t>J14-516室</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>景观设计（二）李晓君 (6-9周) 环境设计2019-1</t>
+          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>景观设计（二）李晓君 (6-9周) 环境设计2019-1</t>
+          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>景观设计（二）李晓君 (6-9周) 环境设计2019-1</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>景观设计（二）李晓君 (6-9周) 环境设计2019-1</t>
-        </is>
-      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>景观设计（二）仇同文 (6-9周) 环境设计2019-2</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>景观设计（二）仇同文 (6-9周) 环境设计2019-2</t>
-        </is>
-      </c>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr">
         <is>
-          <t>景观设计（二）李晓君 (6-9周) 环境设计2019-1</t>
+          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>景观设计（二）李晓君 (6-9周) 环境设计2019-1</t>
-        </is>
-      </c>
-      <c r="T83" t="inlineStr">
-        <is>
-          <t>景观设计（二）李晓君 (6-8周) 环境设计2019-1</t>
-        </is>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>中外建筑史孙照栋 (1-18周) 环境设计2019-1-2</t>
-        </is>
-      </c>
+          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr">
         <is>
-          <t>景观设计（二）仇同文 (6-9周) 环境设计2019-2</t>
+          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
         </is>
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>景观设计（二）仇同文 (6-9周) 环境设计2019-2</t>
-        </is>
-      </c>
-      <c r="Y83" t="inlineStr">
-        <is>
-          <t>景观设计（二）仇同文 (6-8周) 环境设计2019-2</t>
-        </is>
-      </c>
+          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
+        </is>
+      </c>
+      <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr"/>
       <c r="AA83" t="inlineStr"/>
       <c r="AB83" t="inlineStr"/>
@@ -8361,56 +8305,80 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>J14-516室</t>
+          <t>J14-531室</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要姜瑞学 (1-12周) 测绘工程2021-1-4</t>
+        </is>
+      </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
+          <t>思想道德与法治郗凤芹 (1-12周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
+          <t>中国近现代史纲要邱楚珈 (1-12周) 安全工程2021-1-5</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要王兆立 (1-12周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>马克思主义基本原理刘丽威 (1-12周) 生物工程2020-1-2班,矿物加工工程2020-1-3</t>
+        </is>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>计算机程序设计基础（C#语言）杨文宇 (6-13周) 安全工程2020-1-2</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>形势与政策（4-4）秦晓钟,任成金 (5-8周) 测绘工程2020-1-4</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要王若菡 (1-12周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
+        </is>
+      </c>
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr">
         <is>
-          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
-        </is>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
-        </is>
-      </c>
-      <c r="T84" t="inlineStr"/>
+          <t>中国近现代史纲要王兆立 (1-12周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要姜瑞学 (1-12周) 测绘工程2021-1-4</t>
+        </is>
+      </c>
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr">
-        <is>
-          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
-        </is>
-      </c>
+      <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr">
         <is>
-          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
-        </is>
-      </c>
-      <c r="Y84" t="inlineStr"/>
+          <t>马克思主义基本原理刘丽威 (1-12周) 生物工程2020-1-2班,矿物加工工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>思想道德与法治郗凤芹 (1-12周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
+        </is>
+      </c>
       <c r="Z84" t="inlineStr"/>
       <c r="AA84" t="inlineStr"/>
       <c r="AB84" t="inlineStr"/>
@@ -8430,80 +8398,36 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>J14-531室</t>
+          <t>J14-520室</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要姜瑞学 (1-12周) 测绘工程2021-1-4</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>思想道德与法治郗凤芹 (1-12周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要邱楚珈 (1-12周) 安全工程2021-1-5</t>
-        </is>
-      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要王兆立 (1-12周) 工程力学2021-1-2班,工业工程2021-1-2</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>马克思主义基本原理刘丽威 (1-12周) 生物工程2020-1-2班,矿物加工工程2020-1-3</t>
-        </is>
-      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>计算机程序设计基础（C#语言）杨文宇 (6-13周) 安全工程2020-1-2</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>形势与政策（4-4）秦晓钟,任成金 (5-8周) 测绘工程2020-1-4</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要王若菡 (1-12周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
-        </is>
-      </c>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要王兆立 (1-12周) 工程力学2021-1-2班,工业工程2021-1-2</t>
-        </is>
-      </c>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要姜瑞学 (1-12周) 测绘工程2021-1-4</t>
-        </is>
-      </c>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>视觉传达设计导论孙德波 (8周) 视觉传达设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
       <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr">
-        <is>
-          <t>马克思主义基本原理刘丽威 (1-12周) 生物工程2020-1-2班,矿物加工工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="Y85" t="inlineStr">
-        <is>
-          <t>思想道德与法治郗凤芹 (1-12周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
-        </is>
-      </c>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr"/>
       <c r="AA85" t="inlineStr"/>
       <c r="AB85" t="inlineStr"/>
@@ -8523,31 +8447,55 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>J14-520室</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
+          <t>J14-533室</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要冯秀芹 (1-12周) 机械电子工程2021-5-6班,机械设计制造及其自动化2021-5-6</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>形势与政策（4-2）秦晓钟,任成金 (5-8周) 测绘工程2021-1-4</t>
+        </is>
+      </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要孙冬青 (1-12周) 工商管理(体育)2021班,金融学2021-1-2班,工商管理2021-1-2</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>毛泽东思想和中国特色社会主义理论体系概论王忠春 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
+        </is>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>危险源辨识与控制孟祥喜 (6-13周) 安全工程2020-3</t>
+        </is>
+      </c>
       <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要薛锋 (1-12周) 地质工程2021-1-3班,勘查技术与工程2021-1-2</t>
+        </is>
+      </c>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>视觉传达设计导论孙德波 (8周) 视觉传达设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="T86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要冯秀芹 (1-12周) 机械电子工程2021-5-6班,机械设计制造及其自动化2021-5-6</t>
+        </is>
+      </c>
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr"/>
       <c r="W86" t="inlineStr"/>
@@ -8572,30 +8520,26 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>J14-533室</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要冯秀芹 (1-12周) 机械电子工程2021-5-6班,机械设计制造及其自动化2021-5-6</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
+          <t>J14-535室</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>C语言程序设计张涛 (6-13周) 勘查技术与工程2021-1-2</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>形势与政策（4-2）秦晓钟,任成金 (5-8周) 测绘工程2021-1-4</t>
+          <t>思想道德与法治金淑敏 (1-12周) 应用化学2021-1-2班,生物工程2021-1-2</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要孙冬青 (1-12周) 工商管理(体育)2021班,金融学2021-1-2班,工商管理2021-1-2</t>
-        </is>
-      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>毛泽东思想和中国特色社会主义理论体系概论王忠春 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
+          <t>空间大地测量学基础孔巧丽 (1,3-9周) 测绘工程2019-1-2</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -8603,29 +8547,41 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>危险源辨识与控制孟祥喜 (6-13周) 安全工程2020-3</t>
+          <t>海图制图王瑞富 (1-10周) 测绘工程2020-1-5</t>
         </is>
       </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>中国近现代史纲要薛锋 (1-12周) 地质工程2021-1-3班,勘查技术与工程2021-1-2</t>
+          <t>社会主义发展史李四光 (1-8周) 环境工程2021-1-4</t>
         </is>
       </c>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr"/>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>空间大地测量学基础孔巧丽 (1-9周) 测绘工程2019-1-2</t>
+        </is>
+      </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>中国近现代史纲要冯秀芹 (1-12周) 机械电子工程2021-5-6班,机械设计制造及其自动化2021-5-6</t>
-        </is>
-      </c>
-      <c r="U87" t="inlineStr"/>
+          <t>中国近现代史纲要邱楚珈 (1-12周) 安全工程2021-1-5</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>C语言程序设计张涛 (6-13周) 勘查技术与工程2021-1-2</t>
+        </is>
+      </c>
       <c r="V87" t="inlineStr"/>
       <c r="W87" t="inlineStr"/>
       <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr">
+        <is>
+          <t>社会主义发展史李四光 (1-8周) 环境工程2021-1-4</t>
+        </is>
+      </c>
       <c r="Z87" t="inlineStr"/>
       <c r="AA87" t="inlineStr"/>
       <c r="AB87" t="inlineStr"/>
@@ -8645,68 +8601,56 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>J14-535室</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
+          <t>J14-524室</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>产品形象设计杜婉君 (7-10周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>C语言程序设计张涛 (6-13周) 勘查技术与工程2021-1-2</t>
+          <t>产品形象设计杜婉君 (7-10周) 视觉传达设计2020-1-2</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>思想道德与法治金淑敏 (1-12周) 应用化学2021-1-2班,生物工程2021-1-2</t>
+          <t>产品形象设计杜婉君 (7-10周) 视觉传达设计2020-1-2</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>空间大地测量学基础孔巧丽 (1-9周) 测绘工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>海图制图王瑞富 (1-10周) 测绘工程2020-1-5</t>
-        </is>
-      </c>
+      <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>社会主义发展史李四光 (1-8周) 环境工程2021-1-4</t>
-        </is>
-      </c>
+      <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>产品形象设计杜婉君 (7-10周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>空间大地测量学基础孔巧丽 (1-9周) 测绘工程2019-1-2</t>
+          <t>产品形象设计杜婉君 (7-10周) 视觉传达设计2020-1-2</t>
         </is>
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>中国近现代史纲要邱楚珈 (1-12周) 安全工程2021-1-5</t>
-        </is>
-      </c>
-      <c r="U88" t="inlineStr">
-        <is>
-          <t>C语言程序设计张涛 (6-13周) 勘查技术与工程2021-1-2</t>
-        </is>
-      </c>
+          <t>产品形象设计杜婉君 (7-10周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr"/>
       <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr">
-        <is>
-          <t>社会主义发展史李四光 (1-8周) 环境工程2021-1-4</t>
-        </is>
-      </c>
+      <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="inlineStr"/>
@@ -8726,24 +8670,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>J14-524室</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>产品形象设计杜婉君 (7-10周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>产品形象设计杜婉君 (7-10周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>产品形象设计杜婉君 (7-10周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
+          <t>J14-526室</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
@@ -8751,30 +8683,42 @@
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>书籍装桢刘佳 (7-9周) 视觉传达设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>书籍装桢刘佳 (7-9周) 视觉传达设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>书籍装桢刘佳 (7-9周) 视觉传达设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>书籍装桢刘佳 (7-9周) 视觉传达设计2019-1-2</t>
+        </is>
+      </c>
       <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>产品形象设计杜婉君 (7-10周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="S89" t="inlineStr">
-        <is>
-          <t>产品形象设计杜婉君 (7-10周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="T89" t="inlineStr">
-        <is>
-          <t>产品形象设计杜婉君 (7-10周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr"/>
       <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr"/>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>书籍装桢刘佳 (7-9周) 视觉传达设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>书籍装桢刘佳 (7-9周) 视觉传达设计2019-1-2</t>
+        </is>
+      </c>
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="inlineStr"/>
@@ -8795,7 +8739,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>J14-526室</t>
+          <t>J14-528室</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -8803,47 +8747,39 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>人机工程学王晓娜 (7-14周) 产品设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>人机工程学王晓娜 (7-14周) 产品设计2020-1-2</t>
+        </is>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>书籍装桢刘佳 (7-9周) 视觉传达设计2019-1-2</t>
+          <t>造型材料与色彩工 艺（CMF）张琳 (1-8周) 产品设计2020-1-2</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>书籍装桢刘佳 (7-9周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>书籍装桢刘佳 (7-9周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>书籍装桢刘佳 (7-9周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
+          <t>造型材料与色彩工 艺（CMF）张琳 (1-8周) 产品设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr"/>
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr"/>
-      <c r="W90" t="inlineStr">
-        <is>
-          <t>书籍装桢刘佳 (7-9周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="X90" t="inlineStr">
-        <is>
-          <t>书籍装桢刘佳 (7-9周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr"/>
       <c r="AA90" t="inlineStr"/>
@@ -8864,47 +8800,55 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>J14-528室</t>
+          <t>J14-530室</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
+        </is>
+      </c>
       <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>人机工程学王晓娜 (7-14周) 产品设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>人机工程学王晓娜 (7-14周) 产品设计2020-1-2</t>
-        </is>
-      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>造型材料与色彩工 艺（CMF）张琳 (1-8周) 产品设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>造型材料与色彩工 艺（CMF）张琳 (1-8周) 产品设计2020-1-2</t>
-        </is>
-      </c>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
+        </is>
+      </c>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr"/>
       <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr"/>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
+        </is>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
+        </is>
+      </c>
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr"/>
       <c r="AA91" t="inlineStr"/>
@@ -8925,55 +8869,51 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>J14-530室</t>
+          <t>J14-540室</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
-        </is>
-      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>文化旅游产品设计修朴华 (1-4,7-8周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>文化旅游产品设计修朴华 (1-4,7-8周) 产品设计2019-1-2</t>
+        </is>
+      </c>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr">
-        <is>
-          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
-        </is>
-      </c>
+      <c r="R92" t="inlineStr"/>
       <c r="S92" t="inlineStr">
         <is>
-          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
-        </is>
-      </c>
-      <c r="T92" t="inlineStr"/>
-      <c r="U92" t="inlineStr"/>
+          <t>文化旅游产品设计修朴华 (1-4,7-8周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>文化旅游产品设计修朴华 (1-4,7-8周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>文化旅游产品设计修朴华 (1-4,7-8周) 产品设计2019-1-2</t>
+        </is>
+      </c>
       <c r="V92" t="inlineStr"/>
-      <c r="W92" t="inlineStr">
-        <is>
-          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
-        </is>
-      </c>
-      <c r="X92" t="inlineStr">
-        <is>
-          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
-        </is>
-      </c>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr"/>
       <c r="AA92" t="inlineStr"/>
@@ -8994,52 +8934,76 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>J14-540室</t>
+          <t>J14-525室</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>形势与政策（4-4）秦晓钟,任成金 (5-8周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>井巷工程马其华 (8-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>流体力学与流体机械宋维强 (8-11周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>材料力学（A）赵增辉 (1-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>文化旅游产品设计修朴华 (1-4,7-8周) 产品设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr">
         <is>
-          <t>文化旅游产品设计修朴华 (1-4,7-8周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr"/>
+          <t>工程测量学刘尚国 (4-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>马克思主义基本原理高明 (1-12周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr"/>
       <c r="S93" t="inlineStr">
         <is>
-          <t>文化旅游产品设计修朴华 (1-4,7-8周) 产品设计2019-1-2</t>
+          <t>材料力学（A）赵增辉 (1-15周) 采矿工程（宋振骐班）2020</t>
         </is>
       </c>
       <c r="T93" t="inlineStr">
         <is>
-          <t>文化旅游产品设计修朴华 (1-4,7-8周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t>文化旅游产品设计修朴华 (1-4,7-8周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="V93" t="inlineStr"/>
+          <t>井巷工程马其华 (8-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>流体力学与流体机械宋维强 (8-11周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
       <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="inlineStr"/>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>工程测量学刘尚国 (4-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="Y93" t="inlineStr">
+        <is>
+          <t>马克思主义基本原理高明 (1-12周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
       <c r="Z93" t="inlineStr"/>
       <c r="AA93" t="inlineStr"/>
       <c r="AB93" t="inlineStr"/>
@@ -9059,44 +9023,44 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>J14-525室</t>
+          <t>J14-511室</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>形势与政策（4-4）秦晓钟,任成金 (5-8周) 采矿工程（宋振骐班）2020</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>GNSS测量与数据处理刘智敏 (1-6,8-9周) 遥感科学与技术2019-1</t>
+        </is>
+      </c>
       <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>井巷工程马其华 (8-15周) 采矿工程（宋振骐班）2020</t>
-        </is>
-      </c>
+      <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>流体力学与流体机械宋维强 (8-11周) 采矿工程（宋振骐班）2020</t>
+          <t>地下工程测量学景冬 (4-15周) 测绘工程2019-3</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>材料力学（A）赵增辉 (1-15周) 采矿工程（宋振骐班）2020</t>
+          <t>GNSS原理与应用刘智敏 (6-15周) 测绘工程2020-1</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>地下工程测量学靳奉祥 (8-15周) 测绘工程2019-1</t>
+        </is>
+      </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>工程测量学刘尚国 (4-15周) 采矿工程（宋振骐班）2020</t>
+          <t>GNSS测量与数据处理刘智敏 (1-6,8-9周) 遥感科学与技术2019-1</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>马克思主义基本原理高明 (1-12周) 采矿工程（宋振骐班）2020</t>
+          <t>数字地形测量学王健 (8-19周) 测绘工程2021-1</t>
         </is>
       </c>
       <c r="P94" t="inlineStr"/>
@@ -9104,29 +9068,29 @@
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr">
         <is>
-          <t>材料力学（A）赵增辉 (1-15周) 采矿工程（宋振骐班）2020</t>
+          <t>大地测量学基础郭金运 (1-10周) 测绘工程2020-3</t>
         </is>
       </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t>井巷工程马其华 (8-15周) 采矿工程（宋振骐班）2020</t>
+          <t>工程测量学常乐 (1-12周) 测绘工程2019-2</t>
         </is>
       </c>
       <c r="U94" t="inlineStr"/>
       <c r="V94" t="inlineStr">
         <is>
-          <t>流体力学与流体机械宋维强 (8-11周) 采矿工程（宋振骐班）2020</t>
+          <t>地下工程测量学景冬 (4-15周) 测绘工程2019-3</t>
         </is>
       </c>
       <c r="W94" t="inlineStr"/>
       <c r="X94" t="inlineStr">
         <is>
-          <t>工程测量学刘尚国 (4-15周) 采矿工程（宋振骐班）2020</t>
+          <t>数字地形测量学王健 (8-19周) 测绘工程2021-1</t>
         </is>
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>马克思主义基本原理高明 (1-12周) 采矿工程（宋振骐班）2020</t>
+          <t>GNSS原理与应用刘智敏 (6-15周) 测绘工程2020-1</t>
         </is>
       </c>
       <c r="Z94" t="inlineStr"/>
@@ -9148,44 +9112,36 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>J14-511室</t>
+          <t>J14-521室</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>GNSS测量与数据处理刘智敏 (1-9周) 遥感科学与技术2019-1</t>
+          <t>中国近现代史纲要王兆立 (1-12周) 采矿工程（宋振骐班）2021</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>地下工程测量学景冬 (4-15周) 测绘工程2019-3</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>GNSS原理与应用刘智敏 (6-15周) 测绘工程2020-1</t>
-        </is>
-      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>地下工程测量学靳奉祥 (4-15周) 测绘工程2019-1</t>
+          <t>大学物理（B）（2-1）张艳亮 (1-12周) 采矿工程（宋振骐班）2021</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>GNSS测量与数据处理刘智敏 (1-9周) 遥感科学与技术2019-1</t>
+          <t>大学英语（A)(2-2)申佃美 (1-16周) 采矿工程（宋振骐班）2021</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>数字地形测量学王健 (8-19周) 测绘工程2021-1</t>
+          <t>中国近现代史纲要王兆立 (1-12周) 采矿工程（宋振骐班）2021</t>
         </is>
       </c>
       <c r="P95" t="inlineStr"/>
@@ -9193,31 +9149,19 @@
       <c r="R95" t="inlineStr"/>
       <c r="S95" t="inlineStr">
         <is>
-          <t>大地测量学基础郭金运 (1-10周) 测绘工程2020-3</t>
-        </is>
-      </c>
-      <c r="T95" t="inlineStr">
-        <is>
-          <t>工程测量学常乐 (1-12周) 测绘工程2019-2</t>
-        </is>
-      </c>
+          <t>大学英语（A)(2-2)申佃美 (1-16周) 采矿工程（宋振骐班）2021</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr"/>
-      <c r="V95" t="inlineStr">
-        <is>
-          <t>地下工程测量学景冬 (4-15周) 测绘工程2019-3</t>
-        </is>
-      </c>
+      <c r="V95" t="inlineStr"/>
       <c r="W95" t="inlineStr"/>
       <c r="X95" t="inlineStr">
         <is>
-          <t>数字地形测量学王健 (8-19周) 测绘工程2021-1</t>
-        </is>
-      </c>
-      <c r="Y95" t="inlineStr">
-        <is>
-          <t>GNSS原理与应用刘智敏 (6-15周) 测绘工程2020-1</t>
-        </is>
-      </c>
+          <t>大学物理（B）（2-1）张艳亮 (1-12周) 采矿工程（宋振骐班）2021</t>
+        </is>
+      </c>
+      <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr"/>
       <c r="AA95" t="inlineStr"/>
       <c r="AB95" t="inlineStr"/>
@@ -9237,14 +9181,14 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>J14-521室</t>
+          <t>J14-509室</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>中国近现代史纲要王兆立 (1-12周) 采矿工程（宋振骐班）2021</t>
+          <t>机械设计基础薛风先 (1-12周) 交通运输2020-4</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -9256,34 +9200,26 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-1）张艳亮 (1-12周) 采矿工程（宋振骐班）2021</t>
+          <t>大学英语（A)(2-2)陈昕 (1-16周) 资源勘查工程2021-1</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-2)申佃美 (1-16周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要王兆立 (1-12周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+          <t>大学英语（A)(2-2)陈昕 (1-16周) 电子信息科学与技术2021-1</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-2)申佃美 (1-16周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+      <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr"/>
       <c r="V96" t="inlineStr"/>
       <c r="W96" t="inlineStr"/>
       <c r="X96" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-1）张艳亮 (1-12周) 采矿工程（宋振骐班）2021</t>
+          <t>机械设计基础薛风先 (1-12周) 交通运输2020-4</t>
         </is>
       </c>
       <c r="Y96" t="inlineStr"/>
@@ -9306,41 +9242,61 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>J14-509室</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>机械设计基础薛风先 (1-12周) 交通运输2020-4</t>
-        </is>
-      </c>
+          <t>J14-332室</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>矿山压力与岩层控制吴士良 (6-10周) 采矿工程2019-3</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>城市安全与应急管理孙彪 (8-11,13-16周) 安全工程（应急管理方向）2019</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>工程测量学常乐 (1-12周) 测绘工程2019-2</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>弹性力学基础吕显州 (1-8周) 地质工程2020-3</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>矿山灾害预防与控制李学龙 (6-9周) 安全工程2019-3-4</t>
+        </is>
+      </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr"/>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>专门水文地质学邱梅 (8-17周) 水文与水资源工程2019-1</t>
+        </is>
+      </c>
       <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>普通地质学刘金庆,宋召军 (6-13周) 地质工程2021-3</t>
+        </is>
+      </c>
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr"/>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>矿山压力与岩层控制吴士良 (6-9双周) 采矿工程2019-3</t>
+        </is>
+      </c>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr"/>
       <c r="V97" t="inlineStr"/>
       <c r="W97" t="inlineStr"/>
       <c r="X97" t="inlineStr">
         <is>
-          <t>机械设计基础薛风先 (1-12周) 交通运输2020-4</t>
+          <t>开采损害与环境保护张文泉 (6-9双周) 采矿工程2019-3-4</t>
         </is>
       </c>
       <c r="Y97" t="inlineStr"/>
@@ -9363,63 +9319,59 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>J14-332室</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>矿山压力与岩层控制吴士良 (6-10周) 采矿工程2019-3</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>城市安全与应急管理孙彪 (8-11,13-16周) 安全工程（应急管理方向）2019</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr"/>
+          <t>J14-519室</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>生化分离工程(双语)李桂江 (1-10周) 生物工程2019-2</t>
+        </is>
+      </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>弹性力学基础吕显州 (1-8周) 地质工程2020-3</t>
+          <t>发酵工程孟龙 (1-10周) 生物工程2019-1</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>矿山灾害预防与控制李学龙 (6-9周) 安全工程2019-3-4</t>
+          <t>发酵工程纪蓓 (1-10周) 生物工程2019-2</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>专门水文地质学邱梅 (8-17周) 水文与水资源工程2019-1</t>
-        </is>
-      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>生化分离工程(双语)李桂江 (1-10周) 生物工程2019-2</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>普通地质学刘金庆,宋召军 (6-13周) 地质工程2021-3</t>
+          <t>生物化学崔志芳 (3-15,17-19周) 生物工程2020-2</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>化工原理（2-1）牛海丽 (2-9周) 生物工程2020-2</t>
+        </is>
+      </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>矿山压力与岩层控制吴士良 (6-9双周) 采矿工程2019-3</t>
+          <t>发酵工程纪蓓 (1-10周) 生物工程2019-2</t>
         </is>
       </c>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr"/>
       <c r="V98" t="inlineStr"/>
       <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr">
-        <is>
-          <t>开采损害与环境保护张文泉 (6-9双周) 采矿工程2019-3-4</t>
-        </is>
-      </c>
+      <c r="X98" t="inlineStr"/>
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr"/>
       <c r="AA98" t="inlineStr"/>
@@ -9440,59 +9392,43 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>J14-519室</t>
+          <t>J14-515室</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>生化分离工程(双语)李桂江 (1-10周) 生物工程2019-2</t>
-        </is>
-      </c>
+      <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>发酵工程孟龙 (1-10周) 生物工程2019-1</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>发酵工程纪蓓 (1-10周) 生物工程2019-2</t>
-        </is>
-      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>工程测量学于胜文 (1-6,8-12周) 测绘工程2019-1</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>生化分离工程(双语)李桂江 (1-10周) 生物工程2019-2</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>GNSS原理与应用崔健慧 (6-15周) 测绘工程2020-5</t>
+        </is>
+      </c>
       <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>生物化学崔志芳 (3-15,17-19周) 生物工程2020-2</t>
-        </is>
-      </c>
+      <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr">
-        <is>
-          <t>化工原理（2-1）牛海丽 (2-9周) 生物工程2020-2</t>
-        </is>
-      </c>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>发酵工程纪蓓 (1-10周) 生物工程2019-2</t>
-        </is>
-      </c>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr"/>
       <c r="V99" t="inlineStr"/>
       <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr"/>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>GNSS原理与应用崔健慧 (6-15周) 测绘工程2020-5</t>
+        </is>
+      </c>
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr"/>
       <c r="AA99" t="inlineStr"/>
@@ -9507,63 +9443,6 @@
       <c r="AJ99" t="inlineStr"/>
       <c r="AK99" t="inlineStr"/>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>J14-515室</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>工程测量学于胜文 (1-12周) 测绘工程2019-1</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>GNSS原理与应用崔健慧 (6-15周) 测绘工程2020-5</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="inlineStr"/>
-      <c r="T100" t="inlineStr"/>
-      <c r="U100" t="inlineStr"/>
-      <c r="V100" t="inlineStr"/>
-      <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr">
-        <is>
-          <t>GNSS原理与应用崔健慧 (6-15周) 测绘工程2020-5</t>
-        </is>
-      </c>
-      <c r="Y100" t="inlineStr"/>
-      <c r="Z100" t="inlineStr"/>
-      <c r="AA100" t="inlineStr"/>
-      <c r="AB100" t="inlineStr"/>
-      <c r="AC100" t="inlineStr"/>
-      <c r="AD100" t="inlineStr"/>
-      <c r="AE100" t="inlineStr"/>
-      <c r="AF100" t="inlineStr"/>
-      <c r="AG100" t="inlineStr"/>
-      <c r="AH100" t="inlineStr"/>
-      <c r="AI100" t="inlineStr"/>
-      <c r="AJ100" t="inlineStr"/>
-      <c r="AK100" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
